--- a/Data/Exam 7 - Exam Analysis.xlsx
+++ b/Data/Exam 7 - Exam Analysis.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
-    <sheet name="2014" sheetId="2" r:id="rId2"/>
-    <sheet name="RF" sheetId="3" r:id="rId3"/>
+    <sheet name="2017" sheetId="4" r:id="rId2"/>
+    <sheet name="2014" sheetId="5" r:id="rId3"/>
+    <sheet name="2015" sheetId="6" r:id="rId4"/>
+    <sheet name="2016" sheetId="7" r:id="rId5"/>
+    <sheet name="2018" sheetId="8" r:id="rId6"/>
+    <sheet name="RF" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="160">
   <si>
     <t>Mack (2000)</t>
   </si>
   <si>
-    <t>Hurlimann</t>
-  </si>
-  <si>
     <t>Brosius</t>
   </si>
   <si>
@@ -49,9 +50,6 @@
   </si>
   <si>
     <t>Sahasrabuddhe</t>
-  </si>
-  <si>
-    <t>Teng &amp; Perkins</t>
   </si>
   <si>
     <t>Meyers</t>
@@ -494,20 +492,294 @@
     <t>Calculations</t>
   </si>
   <si>
-    <t>Need Major Review</t>
-  </si>
-  <si>
     <t>Lucky</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>3.a.</t>
+  </si>
+  <si>
+    <t>3.b.</t>
+  </si>
+  <si>
+    <t>5.a.</t>
+  </si>
+  <si>
+    <t>5.b.</t>
+  </si>
+  <si>
+    <t>5.c.</t>
+  </si>
+  <si>
+    <t>6.a.</t>
+  </si>
+  <si>
+    <t>6.b.</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>7.a.</t>
+  </si>
+  <si>
+    <t>7.b.</t>
+  </si>
+  <si>
+    <t>Forgot units. Calculated reserves instead of ults.</t>
+  </si>
+  <si>
+    <t>Forgot units. Did not state assumption regarding units of s.e.</t>
+  </si>
+  <si>
+    <t>8.a.</t>
+  </si>
+  <si>
+    <t>8.b.</t>
+  </si>
+  <si>
+    <t>8.c.</t>
+  </si>
+  <si>
+    <t>8.d.</t>
+  </si>
+  <si>
+    <t>8.e.</t>
+  </si>
+  <si>
+    <t>10.a.</t>
+  </si>
+  <si>
+    <t>10.b.</t>
+  </si>
+  <si>
+    <t>Showed too many residual points for earlier CYs.</t>
+  </si>
+  <si>
+    <t>Need to review heteroscedastic plots.</t>
+  </si>
+  <si>
+    <t>11.a.</t>
+  </si>
+  <si>
+    <t>11.b.</t>
+  </si>
+  <si>
+    <t>12.a.</t>
+  </si>
+  <si>
+    <t>12.b.</t>
+  </si>
+  <si>
+    <t>13.a.</t>
+  </si>
+  <si>
+    <t>13.b.</t>
+  </si>
+  <si>
+    <t>13.c.</t>
+  </si>
+  <si>
+    <t>Didn't mention symmetry to justify mean value.</t>
+  </si>
+  <si>
+    <t>15.a.</t>
+  </si>
+  <si>
+    <t>15.b.</t>
+  </si>
+  <si>
+    <t>15.c.</t>
+  </si>
+  <si>
+    <t>16.a.</t>
+  </si>
+  <si>
+    <t>16.b.</t>
+  </si>
+  <si>
+    <t>16.c.</t>
+  </si>
+  <si>
+    <t>Just to be conservative</t>
+  </si>
+  <si>
+    <t>The graders wanted justification</t>
+  </si>
+  <si>
+    <t>18.a.</t>
+  </si>
+  <si>
+    <t>18.b.</t>
+  </si>
+  <si>
+    <t>18.c.</t>
+  </si>
+  <si>
+    <t>18.d.</t>
+  </si>
+  <si>
+    <t>18.e.</t>
+  </si>
+  <si>
+    <t>19.a.</t>
+  </si>
+  <si>
+    <t>19.b.</t>
+  </si>
+  <si>
+    <t>19.c.</t>
+  </si>
+  <si>
+    <t>19.d.</t>
+  </si>
+  <si>
+    <t>20.a.</t>
+  </si>
+  <si>
+    <t>20.b.</t>
+  </si>
+  <si>
+    <t>Needs Review</t>
+  </si>
+  <si>
+    <t>Need to review components of FCFE method</t>
+  </si>
+  <si>
+    <t>Review FCFE section</t>
+  </si>
+  <si>
+    <t>21.a.</t>
+  </si>
+  <si>
+    <t>21.b.</t>
+  </si>
+  <si>
+    <t>22.a.</t>
+  </si>
+  <si>
+    <t>22.b.</t>
+  </si>
+  <si>
+    <t>22.c.</t>
+  </si>
+  <si>
+    <t>22.d.</t>
+  </si>
+  <si>
+    <t>23.a.</t>
+  </si>
+  <si>
+    <t>23.b.</t>
+  </si>
+  <si>
+    <t>23.c.</t>
+  </si>
+  <si>
+    <t>24.b.</t>
+  </si>
+  <si>
+    <t>24.c.</t>
+  </si>
+  <si>
+    <t>24.a.</t>
+  </si>
+  <si>
+    <t>25.a.</t>
+  </si>
+  <si>
+    <t>25.b.</t>
+  </si>
+  <si>
+    <t>Need to Review consequences of parameter risk for bigger companies</t>
+  </si>
+  <si>
+    <t>Messed up the reasoning for curve shifts</t>
+  </si>
+  <si>
+    <t>Overall Performance</t>
+  </si>
+  <si>
+    <t>1.a.</t>
+  </si>
+  <si>
+    <t>1.b.</t>
+  </si>
+  <si>
+    <t>4.a.</t>
+  </si>
+  <si>
+    <t>4.b.</t>
+  </si>
+  <si>
+    <t>5.d.</t>
+  </si>
+  <si>
+    <t>11.c.</t>
+  </si>
+  <si>
+    <t>12.c.</t>
+  </si>
+  <si>
+    <t>17.a.</t>
+  </si>
+  <si>
+    <t>17.b.</t>
+  </si>
+  <si>
+    <t>Need Review</t>
+  </si>
+  <si>
+    <t>Used formula 1 instead of 2</t>
+  </si>
+  <si>
+    <t>Need to review FCFE Method</t>
+  </si>
+  <si>
+    <t>2.a.</t>
+  </si>
+  <si>
+    <t>2.b.</t>
+  </si>
+  <si>
+    <t>Hürlimann</t>
+  </si>
+  <si>
+    <t>6.c.</t>
+  </si>
+  <si>
+    <t>9.a.</t>
+  </si>
+  <si>
+    <t>9.b.</t>
+  </si>
+  <si>
+    <t>10.c.</t>
+  </si>
+  <si>
+    <t>14.a.</t>
+  </si>
+  <si>
+    <t>14.b.</t>
+  </si>
+  <si>
+    <t>14.c.</t>
+  </si>
+  <si>
+    <t>17.c.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,6 +853,13 @@
       <sz val="11"/>
       <name val="Gill Sans MT"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -685,10 +964,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -755,9 +1035,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1059,34 +1352,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="3">
+        <v>19</v>
+      </c>
+      <c r="B1" s="28">
         <v>2017</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="28">
         <v>2014</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="28">
         <v>2015</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="28">
         <v>2016</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="28">
         <v>2018</v>
       </c>
     </row>
@@ -1094,135 +1389,700 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A2='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A2='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C2" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A2='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A2='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D2" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A2='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A2='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E2" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A2='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A2='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F2" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A2='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A2='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="29">
+        <f>IFERROR(SUMPRODUCT(($A3='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A3='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>1</v>
+      </c>
+      <c r="C3" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A3='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A3='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D3" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A3='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A3='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E3" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A3='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A3='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F3" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A3='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A3='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="29">
+        <f>IFERROR(SUMPRODUCT(($A4='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A4='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C4" s="29">
+        <f>IFERROR(SUMPRODUCT(($A4='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A4='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A4='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A4='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E4" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A4='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A4='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F4" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A4='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A4='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="29">
+        <f>IFERROR(SUMPRODUCT(($A5='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A5='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>0.75</v>
+      </c>
+      <c r="C5" s="29">
+        <f>IFERROR(SUMPRODUCT(($A5='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A5='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.9375</v>
+      </c>
+      <c r="D5" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A5='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A5='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E5" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A5='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A5='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F5" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A5='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A5='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="29">
+        <f>IFERROR(SUMPRODUCT(($A6='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A6='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="C6" s="29">
+        <f>IFERROR(SUMPRODUCT(($A6='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A6='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="D6" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A6='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A6='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E6" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A6='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A6='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F6" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A6='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A6='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="29">
+        <f>IFERROR(SUMPRODUCT(($A7='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A7='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="C7" s="29">
+        <f>IFERROR(SUMPRODUCT(($A7='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A7='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A7='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A7='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E7" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A7='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A7='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F7" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A7='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A7='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A8='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A8='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C8" s="29">
+        <f>IFERROR(SUMPRODUCT(($A8='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A8='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A8='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A8='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E8" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A8='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A8='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F8" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A8='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A8='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="29">
+        <f>IFERROR(SUMPRODUCT(($A9='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A9='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="29">
+        <f>IFERROR(SUMPRODUCT(($A9='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A9='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A9='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A9='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E9" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A9='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A9='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F9" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A9='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A9='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="29">
+        <f>IFERROR(SUMPRODUCT(($A10='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A10='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>0.8125</v>
+      </c>
+      <c r="C10" s="29">
+        <f>IFERROR(SUMPRODUCT(($A10='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A10='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.875</v>
+      </c>
+      <c r="D10" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A10='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A10='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E10" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A10='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A10='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F10" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A10='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A10='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="29">
+        <f>IFERROR(SUMPRODUCT(($A11='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A11='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="29">
+        <f>IFERROR(SUMPRODUCT(($A11='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A11='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A11='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A11='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E11" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A11='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A11='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F11" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A11='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A11='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="29">
+        <f>IFERROR(SUMPRODUCT(($A12='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A12='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A12='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A12='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D12" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A12='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A12='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E12" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A12='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A12='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F12" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A12='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A12='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="B13" s="29">
+        <f>IFERROR(SUMPRODUCT(($A13='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A13='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C13" s="29">
+        <f>IFERROR(SUMPRODUCT(($A13='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A13='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A13='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A13='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E13" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A13='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A13='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F13" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A13='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A13='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B14" s="29">
+        <f>IFERROR(SUMPRODUCT(($A14='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A14='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C14" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A14='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A14='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D14" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A14='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A14='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E14" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A14='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A14='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F14" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A14='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A14='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A15='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A15='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C15" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A15='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A15='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D15" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A15='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A15='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E15" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A15='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A15='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F15" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A15='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A15='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="29">
+        <f>IFERROR(SUMPRODUCT(($A16='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A16='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="29">
+        <f>IFERROR(SUMPRODUCT(($A16='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A16='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="D16" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A16='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A16='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E16" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A16='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A16='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F16" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A16='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A16='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="29">
+        <f>IFERROR(SUMPRODUCT(($A17='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A17='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>0.8</v>
+      </c>
+      <c r="C17" s="29">
+        <f>IFERROR(SUMPRODUCT(($A17='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A17='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D17" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A17='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A17='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E17" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A17='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A17='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F17" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A17='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A17='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" s="29">
+        <f>IFERROR(SUMPRODUCT(($A18='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A18='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>0.75</v>
+      </c>
+      <c r="C18" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A18='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A18='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D18" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A18='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A18='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E18" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A18='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A18='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F18" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A18='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A18='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" s="29">
+        <f>IFERROR(SUMPRODUCT(($A19='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A19='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="29">
+        <f>IFERROR(SUMPRODUCT(($A19='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A19='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A19='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A19='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E19" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A19='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A19='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F19" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A19='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A19='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" s="29">
+        <f>IFERROR(SUMPRODUCT(($A20='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A20='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>0.3</v>
+      </c>
+      <c r="C20" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A20='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A20='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D20" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A20='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A20='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E20" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A20='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A20='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F20" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A20='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A20='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B21" s="29">
+        <f>IFERROR(SUMPRODUCT(($A21='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A21='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="C21" s="29">
+        <f>IFERROR(SUMPRODUCT(($A21='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A21='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.9</v>
+      </c>
+      <c r="D21" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A21='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A21='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E21" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A21='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A21='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F21" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A21='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A21='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="29">
+        <f>IFERROR(SUMPRODUCT(($A22='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A22='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C22" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A22='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A22='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D22" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A22='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A22='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E22" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A22='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A22='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="F22" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A22='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A22='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="29">
+        <f>SUM('2017'!$C$2:$C$61)/SUM('2017'!$D$2:$D$61)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C23" s="29">
+        <f>SUM('2014'!$C$2:$C$61)/SUM('2014'!$D$2:$D$61)</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="D23" s="29" t="e">
+        <f>SUM('2015'!$C$2:$C$85)/SUM('2015'!$D$2:$D$85)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="29" t="e">
+        <f>SUM('2016'!$C$2:$C$61)/SUM('2016'!$D$2:$D$61)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="29" t="e">
+        <f>SUM('2018'!$C$2:$C$61)/SUM('2018'!$D$2:$D$61)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="29">
+        <f>SUMPRODUCT(("Y"='2017'!$E$2:$E$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$E$2:$E$61)*('2017'!$D$2:$D$61))</f>
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="29">
+        <f>SUMPRODUCT(("Y"='2014'!$E$2:$E$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$E$2:$E$61)*('2014'!$D$2:$D$61))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D24" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2015'!$E$2:$E$85)*('2015'!$C$2:$C$85))/SUMPRODUCT(("Y"='2015'!$E$2:$E$85)*('2015'!$D$2:$D$85))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2016'!$E$2:$E$61)*('2016'!$C$2:$C$61))/SUMPRODUCT(("Y"='2016'!$E$2:$E$61)*('2016'!$D$2:$D$61))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2018'!$E$2:$E$61)*('2018'!$C$2:$C$61))/SUMPRODUCT(("Y"='2018'!$E$2:$E$61)*('2018'!$D$2:$D$61))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="29">
+        <f>SUMPRODUCT(("Y"='2017'!$F$2:$F$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$F$2:$F$61)*('2017'!$D$2:$D$61))</f>
+        <v>0.87951807228915657</v>
+      </c>
+      <c r="C25" s="29">
+        <f>SUMPRODUCT(("Y"='2014'!$F$2:$F$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$F$2:$F$61)*('2014'!$D$2:$D$61))</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D25" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2015'!$F$2:$F$85)*('2015'!$C$2:$C$85))/SUMPRODUCT(("Y"='2015'!$F$2:$F$85)*('2015'!$D$2:$D$85))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2016'!$F$2:$F$61)*('2016'!$C$2:$C$61))/SUMPRODUCT(("Y"='2016'!$F$2:$F$61)*('2016'!$D$2:$D$61))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2018'!$F$2:$F$61)*('2018'!$C$2:$C$61))/SUMPRODUCT(("Y"='2018'!$F$2:$F$61)*('2018'!$D$2:$D$61))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B26" s="29">
+        <f>SUMPRODUCT(("Y"='2017'!$G$2:$G$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$G$2:$G$61)*('2017'!$D$2:$D$61))</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C26" s="29">
+        <f>SUMPRODUCT(("Y"='2014'!$G$2:$G$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$G$2:$G$61)*('2014'!$D$2:$D$61))</f>
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="D26" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2015'!$G$2:$G$85)*('2015'!$C$2:$C$85))/SUMPRODUCT(("Y"='2015'!$G$2:$G$85)*('2015'!$D$2:$D$85))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2016'!$G$2:$G$61)*('2016'!$C$2:$C$61))/SUMPRODUCT(("Y"='2016'!$G$2:$G$61)*('2016'!$D$2:$D$61))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2018'!$G$2:$G$61)*('2018'!$C$2:$C$61))/SUMPRODUCT(("Y"='2018'!$G$2:$G$61)*('2018'!$D$2:$D$61))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="29">
+        <f>SUMPRODUCT(("Y"='2017'!$H$2:$H$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$H$2:$H$61)*('2017'!$D$2:$D$61))</f>
+        <v>0.90598290598290598</v>
+      </c>
+      <c r="C27" s="29">
+        <f>SUMPRODUCT(("Y"='2014'!$H$2:$H$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$H$2:$H$61)*('2014'!$D$2:$D$61))</f>
+        <v>0.92957746478873238</v>
+      </c>
+      <c r="D27" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2015'!$H$2:$H$85)*('2015'!$C$2:$C$85))/SUMPRODUCT(("Y"='2015'!$H$2:$H$85)*('2015'!$D$2:$D$85))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2016'!$H$2:$H$61)*('2016'!$C$2:$C$61))/SUMPRODUCT(("Y"='2016'!$H$2:$H$61)*('2016'!$D$2:$D$61))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2018'!$H$2:$H$61)*('2018'!$C$2:$C$61))/SUMPRODUCT(("Y"='2018'!$H$2:$H$61)*('2018'!$D$2:$D$61))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>69</v>
+      <c r="B28" s="29">
+        <f>SUMPRODUCT(("Y"='2017'!$I$2:$I$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$I$2:$I$61)*('2017'!$D$2:$D$61))</f>
+        <v>0.75238095238095237</v>
+      </c>
+      <c r="C28" s="29">
+        <f>SUMPRODUCT(("Y"='2014'!$I$2:$I$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$I$2:$I$61)*('2014'!$D$2:$D$61))</f>
+        <v>0.87</v>
+      </c>
+      <c r="D28" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2015'!$I$2:$I$85)*('2015'!$C$2:$C$85))/SUMPRODUCT(("Y"='2015'!$I$2:$I$85)*('2015'!$D$2:$D$85))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2016'!$I$2:$I$61)*('2016'!$C$2:$C$61))/SUMPRODUCT(("Y"='2016'!$I$2:$I$61)*('2016'!$D$2:$D$61))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2018'!$I$2:$I$61)*('2018'!$C$2:$C$61))/SUMPRODUCT(("Y"='2018'!$I$2:$I$61)*('2018'!$D$2:$D$61))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="29">
+        <f>SUMPRODUCT(("Y"='2017'!$J$2:$J$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$J$2:$J$61)*('2017'!$D$2:$D$61))</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C29" s="29">
+        <f>SUMPRODUCT(("Y"='2014'!$J$2:$J$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$J$2:$J$61)*('2014'!$D$2:$D$61))</f>
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2015'!$J$2:$J$85)*('2015'!$C$2:$C$85))/SUMPRODUCT(("Y"='2015'!$J$2:$J$85)*('2015'!$D$2:$D$85))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2016'!$J$2:$J$61)*('2016'!$C$2:$C$61))/SUMPRODUCT(("Y"='2016'!$J$2:$J$61)*('2016'!$D$2:$D$61))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="29" t="e">
+        <f>SUMPRODUCT(("Y"='2018'!$J$2:$J$61)*('2018'!$C$2:$C$61))/SUMPRODUCT(("Y"='2018'!$J$2:$J$61)*('2018'!$D$2:$D$61))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -1233,202 +2093,6047 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="24">
+        <v>2</v>
+      </c>
+      <c r="D2" s="24">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <v>1.75</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C5" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="24">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C12" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="24">
+        <v>1.75</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1.75</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="24">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="24">
+        <v>1</v>
+      </c>
+      <c r="D18" s="24">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="24">
+        <v>2.25</v>
+      </c>
+      <c r="D19" s="24">
+        <v>2.25</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="24">
+        <v>2</v>
+      </c>
+      <c r="D22" s="24">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="24">
+        <v>1</v>
+      </c>
+      <c r="D25" s="24">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" t="s">
+        <v>97</v>
+      </c>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="24">
+        <v>1</v>
+      </c>
+      <c r="D28" s="24">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="24">
+        <v>1</v>
+      </c>
+      <c r="D33" s="24">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="25">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C36" s="24">
+        <v>1</v>
+      </c>
+      <c r="D36" s="24">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D38" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D39" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D41" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
+      <c r="C42" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D42" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="24">
+        <v>1.75</v>
+      </c>
+      <c r="D43" s="24">
+        <v>1.75</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D44" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="24">
+        <v>0</v>
+      </c>
+      <c r="D46" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K46" s="3"/>
+      <c r="L46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D47" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D48" s="24">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D49" s="24">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D50" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D51" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="24">
+        <v>0</v>
+      </c>
+      <c r="D52" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52" s="3"/>
+      <c r="L52" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D53" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="24">
+        <v>1.75</v>
+      </c>
+      <c r="D54" s="24">
+        <v>1.75</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D55" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D56" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="24">
+        <v>1</v>
+      </c>
+      <c r="D57" s="24">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D59" s="24">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="24">
+        <v>3.25</v>
+      </c>
+      <c r="D6" s="24">
+        <v>3.25</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="24">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="24">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="24">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="24">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="24">
+        <v>2</v>
+      </c>
+      <c r="D18" s="24">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="24">
+        <v>1.75</v>
+      </c>
+      <c r="D27" s="24">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="24">
+        <v>2</v>
+      </c>
+      <c r="D28" s="24">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="24">
+        <v>2</v>
+      </c>
+      <c r="D30" s="24">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="24">
+        <v>1</v>
+      </c>
+      <c r="D31" s="24">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="24">
+        <v>1</v>
+      </c>
+      <c r="D34" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="24">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="24">
+        <v>1</v>
+      </c>
+      <c r="D37" s="24">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="24">
+        <v>1</v>
+      </c>
+      <c r="D39" s="24">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D40" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>5</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
+        <v>7</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>12</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="O51" s="27"/>
+    </row>
+    <row r="52" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="1"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="25"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="25"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="25"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="25"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +8143,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1471,7 +8176,7 @@
     </row>
     <row r="2" spans="1:29" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1504,7 +8209,7 @@
     </row>
     <row r="3" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1537,7 +8242,7 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1570,7 +8275,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1603,7 +8308,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="10">
         <v>2011</v>
@@ -1655,28 +8360,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="E7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="G7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1704,28 +8409,28 @@
         <v>2</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1753,28 +8458,28 @@
         <v>3</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1802,28 +8507,28 @@
         <v>4</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>39</v>
-      </c>
       <c r="G10" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1851,28 +8556,28 @@
         <v>5</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="G11" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1900,28 +8605,28 @@
         <v>6</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="E12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="H12" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1949,28 +8654,28 @@
         <v>7</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1998,28 +8703,28 @@
         <v>8</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -2047,28 +8752,28 @@
         <v>9</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -2096,28 +8801,28 @@
         <v>10</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -2145,28 +8850,28 @@
         <v>11</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>51</v>
-      </c>
       <c r="H17" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -2194,28 +8899,28 @@
         <v>12</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -2243,28 +8948,28 @@
         <v>13</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>55</v>
-      </c>
       <c r="I19" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -2292,28 +8997,28 @@
         <v>14</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="F20" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="I20" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -2341,28 +9046,28 @@
         <v>15</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="I21" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -2390,28 +9095,28 @@
         <v>16</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="H22" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -2439,28 +9144,28 @@
         <v>17</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="H23" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -2488,28 +9193,28 @@
         <v>18</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -2537,28 +9242,28 @@
         <v>19</v>
       </c>
       <c r="B25" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>56</v>
-      </c>
       <c r="D25" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -2586,28 +9291,28 @@
         <v>20</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -2635,28 +9340,28 @@
         <v>21</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -2684,28 +9389,28 @@
         <v>22</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -2734,23 +9439,23 @@
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -2779,23 +9484,23 @@
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -2826,16 +9531,16 @@
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="5"/>
@@ -2867,13 +9572,13 @@
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
       <c r="E32" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
@@ -2906,13 +9611,13 @@
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
       <c r="E33" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
@@ -2946,10 +9651,10 @@
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H34" s="23"/>
       <c r="I34" s="23"/>
@@ -2983,7 +9688,7 @@
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>

--- a/Data/Exam 7 - Exam Analysis.xlsx
+++ b/Data/Exam 7 - Exam Analysis.xlsx
@@ -15,12 +15,12 @@
     <sheet name="2018" sheetId="8" r:id="rId6"/>
     <sheet name="RF" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="221">
   <si>
     <t>Mack (2000)</t>
   </si>
@@ -770,6 +770,189 @@
   <si>
     <t>17.c.</t>
   </si>
+  <si>
+    <t>Scale issue again when calculating total variance.</t>
+  </si>
+  <si>
+    <t>Needed to explain that Clark shows lower parameter variance due to the use of exposure as a parameter, which provides more information.</t>
+  </si>
+  <si>
+    <t>Residual test for variance assumption</t>
+  </si>
+  <si>
+    <t>Teng&amp;Perkins</t>
+  </si>
+  <si>
+    <t>Could have added more info</t>
+  </si>
+  <si>
+    <t>26.a.</t>
+  </si>
+  <si>
+    <t>28.a.</t>
+  </si>
+  <si>
+    <t>28.b.</t>
+  </si>
+  <si>
+    <t>1.c.</t>
+  </si>
+  <si>
+    <t>2.c.</t>
+  </si>
+  <si>
+    <t>3.c.</t>
+  </si>
+  <si>
+    <t>Venter/Mack</t>
+  </si>
+  <si>
+    <t>9.c.</t>
+  </si>
+  <si>
+    <t>10.d.</t>
+  </si>
+  <si>
+    <t>20.c.</t>
+  </si>
+  <si>
+    <t>20.d.</t>
+  </si>
+  <si>
+    <t>26.b.</t>
+  </si>
+  <si>
+    <t>27.a.</t>
+  </si>
+  <si>
+    <t>27.b.</t>
+  </si>
+  <si>
+    <t>27.c.</t>
+  </si>
+  <si>
+    <t>28.c.</t>
+  </si>
+  <si>
+    <t>Didn't calculate unpaid losses for 2014</t>
+  </si>
+  <si>
+    <t>Shouldn't have used est. ult. From part a</t>
+  </si>
+  <si>
+    <t>Calculation error</t>
+  </si>
+  <si>
+    <t>Remember to take absolute value of Venter's Correlation test</t>
+  </si>
+  <si>
+    <t>Seems like didn't understand the question</t>
+  </si>
+  <si>
+    <t>Should have calculated excess losses per hazard group before weighting them with premium</t>
+  </si>
+  <si>
+    <t>Needed to recognize that all claims had been reported, that's why it was okay to project using severity development only.</t>
+  </si>
+  <si>
+    <t>ODP method calculates variance based on incremental losses not cumulative</t>
+  </si>
+  <si>
+    <t>Need to know different points for setting capital</t>
+  </si>
+  <si>
+    <t>Points for Calc</t>
+  </si>
+  <si>
+    <t>Points for Essay</t>
+  </si>
+  <si>
+    <t>Needed to provide more information</t>
+  </si>
+  <si>
+    <t>Need to review econometric modeling section</t>
+  </si>
+  <si>
+    <t>7.c.</t>
+  </si>
+  <si>
+    <t>7.d.</t>
+  </si>
+  <si>
+    <t>Actionable Items</t>
+  </si>
+  <si>
+    <t>1. Review Taylor</t>
+  </si>
+  <si>
+    <t>2. Review Brehm (1,2,3,5)</t>
+  </si>
+  <si>
+    <t>3. Review Mack (1994)</t>
+  </si>
+  <si>
+    <t>4. Review Brosius</t>
+  </si>
+  <si>
+    <t>5. Review Goldfarb</t>
+  </si>
+  <si>
+    <t>1.d.</t>
+  </si>
+  <si>
+    <t>1.e.</t>
+  </si>
+  <si>
+    <t>Scale parameter using standardized residuals is calc. differently.</t>
+  </si>
+  <si>
+    <t>1.f.</t>
+  </si>
+  <si>
+    <t>1.g.</t>
+  </si>
+  <si>
+    <t>1.h.</t>
+  </si>
+  <si>
+    <t>6. Review Marshall</t>
+  </si>
+  <si>
+    <t>Had to solve for ELR. Given reserves and paid-to-date. Just had to setup equation and solve for the unknown.</t>
+  </si>
+  <si>
+    <t>Variance test is always on the exam</t>
+  </si>
+  <si>
+    <t>Again, why we should test whole triangle for correlation</t>
+  </si>
+  <si>
+    <t>Need to remember that bootstrap uses paid incremental data</t>
+  </si>
+  <si>
+    <t>Why we generally combine last 2 years in calculating premium. Ultimate losses - losses reported at prior retro adjustment represent expected future development.</t>
+  </si>
+  <si>
+    <t>Needed to use the given peer-ratios to justify selection</t>
+  </si>
+  <si>
+    <t>Marginal ROE calculation was wrong. Equation used was correct. Net CR is based on net premium.</t>
+  </si>
+  <si>
+    <t>Didn't know how WTVaR worked</t>
+  </si>
+  <si>
+    <t>22.a</t>
+  </si>
+  <si>
+    <t>22.b</t>
+  </si>
+  <si>
+    <t>Need to review surplus note vs quota-share portion</t>
+  </si>
+  <si>
+    <t>Especially Brehm 2</t>
+  </si>
 </sst>
 </file>
 
@@ -777,9 +960,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -861,6 +1044,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -875,7 +1079,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -963,12 +1167,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1044,15 +1258,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1352,740 +1590,1306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="28">
+        <v>2014</v>
+      </c>
+      <c r="C1" s="28">
+        <v>2015</v>
+      </c>
+      <c r="D1" s="28">
+        <v>2016</v>
+      </c>
+      <c r="E1" s="28">
         <v>2017</v>
-      </c>
-      <c r="C1" s="28">
-        <v>2014</v>
-      </c>
-      <c r="D1" s="28">
-        <v>2015</v>
-      </c>
-      <c r="E1" s="28">
-        <v>2016</v>
       </c>
       <c r="F1" s="28">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="28">
+        <v>2014</v>
+      </c>
+      <c r="L1" s="28">
+        <v>2015</v>
+      </c>
+      <c r="M1" s="28">
+        <v>2016</v>
+      </c>
+      <c r="N1" s="28">
+        <v>2017</v>
+      </c>
+      <c r="O1" s="28">
+        <v>2018</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A2='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A2='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C2" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A2='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A2='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D2" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A2='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A2='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E2" s="29" t="str">
         <f>IFERROR(SUMPRODUCT(($A2='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A2='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>-</v>
       </c>
-      <c r="C2" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A2='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A2='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D2" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A2='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A2='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E2" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A2='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A2='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F2" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A2='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A2='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="29">
+        <f>IFERROR(SUMPRODUCT(($A2='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A2='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29">
+        <f>IFERROR(SUMPRODUCT(($A2='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>3.8626609442060089E-2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A3='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A3='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C3" s="29">
+        <f>IFERROR(SUMPRODUCT(($A3='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A3='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="29">
+        <f>IFERROR(SUMPRODUCT(($A3='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A3='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E3" s="29">
         <f>IFERROR(SUMPRODUCT(($A3='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A3='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A3='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A3='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D3" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A3='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A3='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E3" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A3='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A3='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F3" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A3='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A3='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="29">
+        <f>IFERROR(SUMPRODUCT(($A3='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A3='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29">
+        <f>IFERROR(SUMPRODUCT(($A3='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>4.9450549450549448E-2</v>
+      </c>
+      <c r="M3" s="29">
+        <f>IFERROR(SUMPRODUCT(($A3='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>5.6910569105691054E-2</v>
+      </c>
+      <c r="N3" s="29">
+        <f>IFERROR(SUMPRODUCT(($A3='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>3.6036036036036036E-2</v>
+      </c>
+      <c r="O3" s="29">
+        <f>IFERROR(SUMPRODUCT(($A3='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>3.4334763948497854E-2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>198</v>
+      </c>
+      <c r="T3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="29">
+        <f>IFERROR(SUMPRODUCT(($A4='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A4='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.75</v>
+      </c>
+      <c r="C4" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A4='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A4='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D4" s="29">
+        <f>IFERROR(SUMPRODUCT(($A4='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A4='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="E4" s="29">
         <f>IFERROR(SUMPRODUCT(($A4='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A4='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="C4" s="29">
-        <f>IFERROR(SUMPRODUCT(($A4='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A4='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>0.75</v>
-      </c>
-      <c r="D4" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A4='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A4='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E4" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A4='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A4='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F4" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A4='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A4='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="29">
+        <f>IFERROR(SUMPRODUCT(($A4='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A4='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="29">
+        <f>IFERROR(SUMPRODUCT(($A4='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1)/SUMPRODUCT(('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>4.6783625730994149E-2</v>
+      </c>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29">
+        <f>IFERROR(SUMPRODUCT(($A4='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>5.2845528455284556E-2</v>
+      </c>
+      <c r="N4" s="29">
+        <f>IFERROR(SUMPRODUCT(($A4='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>3.1531531531531529E-2</v>
+      </c>
+      <c r="O4" s="29">
+        <f>IFERROR(SUMPRODUCT(($A4='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>3.4334763948497854E-2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="29">
+        <f>IFERROR(SUMPRODUCT(($A5='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A5='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.9375</v>
+      </c>
+      <c r="C5" s="29">
+        <f>IFERROR(SUMPRODUCT(($A5='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A5='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="D5" s="29">
+        <f>IFERROR(SUMPRODUCT(($A5='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A5='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E5" s="29">
         <f>IFERROR(SUMPRODUCT(($A5='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A5='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>0.75</v>
       </c>
-      <c r="C5" s="29">
-        <f>IFERROR(SUMPRODUCT(($A5='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A5='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>0.9375</v>
-      </c>
-      <c r="D5" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A5='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A5='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E5" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A5='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A5='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F5" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A5='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A5='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="29">
+        <f>IFERROR(SUMPRODUCT(($A5='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A5='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="29">
+        <f>IFERROR(SUMPRODUCT(($A5='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1)/SUMPRODUCT(('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>9.3567251461988299E-2</v>
+      </c>
+      <c r="L5" s="29">
+        <f>IFERROR(SUMPRODUCT(($A5='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>6.043956043956044E-2</v>
+      </c>
+      <c r="M5" s="29">
+        <f>IFERROR(SUMPRODUCT(($A5='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>5.2845528455284556E-2</v>
+      </c>
+      <c r="N5" s="29">
+        <f>IFERROR(SUMPRODUCT(($A5='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>9.0090090090090086E-2</v>
+      </c>
+      <c r="O5" s="29">
+        <f>IFERROR(SUMPRODUCT(($A5='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>7.2961373390557943E-2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="29">
+        <f>IFERROR(SUMPRODUCT(($A6='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A6='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="C6" s="29">
+        <f>IFERROR(SUMPRODUCT(($A6='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A6='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="29">
+        <f>IFERROR(SUMPRODUCT(($A6='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A6='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="29">
         <f>IFERROR(SUMPRODUCT(($A6='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A6='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="C6" s="29">
-        <f>IFERROR(SUMPRODUCT(($A6='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A6='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="D6" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A6='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A6='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E6" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A6='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A6='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F6" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A6='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A6='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="29">
+        <f>IFERROR(SUMPRODUCT(($A6='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A6='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>0.5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="29">
+        <f>IFERROR(SUMPRODUCT(($A6='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1)/SUMPRODUCT(('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="L6" s="29">
+        <f>IFERROR(SUMPRODUCT(($A6='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>5.4945054945054944E-2</v>
+      </c>
+      <c r="M6" s="29">
+        <f>IFERROR(SUMPRODUCT(($A6='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>6.910569105691057E-2</v>
+      </c>
+      <c r="N6" s="29">
+        <f>IFERROR(SUMPRODUCT(($A6='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="O6" s="29">
+        <f>IFERROR(SUMPRODUCT(($A6='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>5.1502145922746781E-2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="29">
+        <f>IFERROR(SUMPRODUCT(($A7='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A7='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="29">
+        <f>IFERROR(SUMPRODUCT(($A7='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A7='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="D7" s="29">
+        <f>IFERROR(SUMPRODUCT(($A7='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A7='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="29">
         <f>IFERROR(SUMPRODUCT(($A7='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A7='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>0.68421052631578949</v>
       </c>
-      <c r="C7" s="29">
-        <f>IFERROR(SUMPRODUCT(($A7='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A7='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A7='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A7='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E7" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A7='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A7='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F7" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A7='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A7='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="29">
+        <f>IFERROR(SUMPRODUCT(($A7='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A7='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="29">
+        <f>IFERROR(SUMPRODUCT(($A7='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1)/SUMPRODUCT(('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>2.3391812865497075E-2</v>
+      </c>
+      <c r="L7" s="29">
+        <f>IFERROR(SUMPRODUCT(($A7='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>0.12637362637362637</v>
+      </c>
+      <c r="M7" s="29">
+        <f>IFERROR(SUMPRODUCT(($A7='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>6.5040650406504072E-2</v>
+      </c>
+      <c r="N7" s="29">
+        <f>IFERROR(SUMPRODUCT(($A7='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>8.5585585585585586E-2</v>
+      </c>
+      <c r="O7" s="29">
+        <f>IFERROR(SUMPRODUCT(($A7='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>9.4420600858369105E-2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="29" t="str">
+      <c r="B8" s="29">
+        <f>IFERROR(SUMPRODUCT(($A8='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A8='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="29">
+        <f>IFERROR(SUMPRODUCT(($A8='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A8='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A8='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A8='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E8" s="29" t="str">
         <f>IFERROR(SUMPRODUCT(($A8='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A8='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>-</v>
       </c>
-      <c r="C8" s="29">
-        <f>IFERROR(SUMPRODUCT(($A8='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A8='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A8='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A8='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E8" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A8='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A8='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F8" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A8='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A8='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="29">
+        <f>IFERROR(SUMPRODUCT(($A8='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A8='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>0.8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="29">
+        <f>IFERROR(SUMPRODUCT(($A8='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1)/SUMPRODUCT(('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>8.771929824561403E-2</v>
+      </c>
+      <c r="L8" s="29">
+        <f>IFERROR(SUMPRODUCT(($A8='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>5.4945054945054944E-2</v>
+      </c>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29">
+        <f>IFERROR(SUMPRODUCT(($A8='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>6.4377682403433473E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="29">
+        <f>IFERROR(SUMPRODUCT(($A9='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A9='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A9='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A9='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D9" s="29">
+        <f>IFERROR(SUMPRODUCT(($A9='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A9='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="29">
         <f>IFERROR(SUMPRODUCT(($A9='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A9='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>1</v>
       </c>
-      <c r="C9" s="29">
-        <f>IFERROR(SUMPRODUCT(($A9='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A9='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A9='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A9='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E9" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A9='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A9='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F9" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A9='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A9='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="29">
+        <f>IFERROR(SUMPRODUCT(($A9='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A9='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="29">
+        <f>IFERROR(SUMPRODUCT(($A9='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1)/SUMPRODUCT(('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>2.3391812865497075E-2</v>
+      </c>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29">
+        <f>IFERROR(SUMPRODUCT(($A9='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>4.065040650406504E-2</v>
+      </c>
+      <c r="N9" s="29">
+        <f>IFERROR(SUMPRODUCT(($A9='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>4.5045045045045043E-2</v>
+      </c>
+      <c r="O9" s="29">
+        <f>IFERROR(SUMPRODUCT(($A9='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>3.8626609442060089E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="29">
+        <f>IFERROR(SUMPRODUCT(($A10='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A10='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.875</v>
+      </c>
+      <c r="C10" s="29">
+        <f>IFERROR(SUMPRODUCT(($A10='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A10='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D10" s="29">
+        <f>IFERROR(SUMPRODUCT(($A10='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A10='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E10" s="29">
         <f>IFERROR(SUMPRODUCT(($A10='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A10='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>0.8125</v>
       </c>
-      <c r="C10" s="29">
-        <f>IFERROR(SUMPRODUCT(($A10='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A10='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>0.875</v>
-      </c>
-      <c r="D10" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A10='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A10='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E10" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A10='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A10='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F10" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A10='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A10='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="29">
+        <f>IFERROR(SUMPRODUCT(($A10='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A10='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="29">
+        <f>IFERROR(SUMPRODUCT(($A10='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1)/SUMPRODUCT(('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>9.3567251461988299E-2</v>
+      </c>
+      <c r="L10" s="29">
+        <f>IFERROR(SUMPRODUCT(($A10='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="M10" s="29">
+        <f>IFERROR(SUMPRODUCT(($A10='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="N10" s="29">
+        <f>IFERROR(SUMPRODUCT(($A10='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>7.2072072072072071E-2</v>
+      </c>
+      <c r="O10" s="29">
+        <f>IFERROR(SUMPRODUCT(($A10='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>0.14592274678111589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="29">
+        <f>IFERROR(SUMPRODUCT(($A11='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A11='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="29">
+        <f>IFERROR(SUMPRODUCT(($A11='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A11='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="29">
+        <f>IFERROR(SUMPRODUCT(($A11='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A11='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E11" s="29">
         <f>IFERROR(SUMPRODUCT(($A11='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A11='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>1</v>
       </c>
-      <c r="C11" s="29">
-        <f>IFERROR(SUMPRODUCT(($A11='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A11='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A11='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A11='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E11" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A11='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A11='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F11" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A11='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A11='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="29">
+        <f>IFERROR(SUMPRODUCT(($A11='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A11='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="29">
+        <f>IFERROR(SUMPRODUCT(($A11='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1)/SUMPRODUCT(('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>2.3391812865497075E-2</v>
+      </c>
+      <c r="L11" s="29">
+        <f>IFERROR(SUMPRODUCT(($A11='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>6.043956043956044E-2</v>
+      </c>
+      <c r="M11" s="29">
+        <f>IFERROR(SUMPRODUCT(($A11='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>3.6585365853658534E-2</v>
+      </c>
+      <c r="N11" s="29">
+        <f>IFERROR(SUMPRODUCT(($A11='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>4.0540540540540543E-2</v>
+      </c>
+      <c r="O11" s="29">
+        <f>IFERROR(SUMPRODUCT(($A11='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>4.7210300429184553E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A12='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A12='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C12" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A12='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A12='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D12" s="29">
+        <f>IFERROR(SUMPRODUCT(($A12='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A12='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="29">
         <f>IFERROR(SUMPRODUCT(($A12='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A12='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>1</v>
       </c>
-      <c r="C12" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A12='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A12='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+      <c r="F12" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A12='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A12='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
         <v>-</v>
       </c>
-      <c r="D12" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A12='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A12='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E12" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A12='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A12='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F12" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A12='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A12='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29">
+        <f>IFERROR(SUMPRODUCT(($A12='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>2.032520325203252E-2</v>
+      </c>
+      <c r="N12" s="29">
+        <f>IFERROR(SUMPRODUCT(($A12='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>4.0540540540540543E-2</v>
+      </c>
+      <c r="O12" s="29"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="29">
+        <f>IFERROR(SUMPRODUCT(($A13='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A13='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="29">
+        <f>IFERROR(SUMPRODUCT(($A13='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A13='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="D13" s="29">
+        <f>IFERROR(SUMPRODUCT(($A13='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A13='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E13" s="29">
         <f>IFERROR(SUMPRODUCT(($A13='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A13='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>0.91666666666666663</v>
       </c>
-      <c r="C13" s="29">
-        <f>IFERROR(SUMPRODUCT(($A13='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A13='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A13='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A13='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E13" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A13='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A13='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F13" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A13='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A13='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="29">
+        <f>IFERROR(SUMPRODUCT(($A13='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A13='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="29">
+        <f>IFERROR(SUMPRODUCT(($A13='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1)/SUMPRODUCT(('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>4.0935672514619881E-2</v>
+      </c>
+      <c r="L13" s="29">
+        <f>IFERROR(SUMPRODUCT(($A13='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>0.1043956043956044</v>
+      </c>
+      <c r="M13" s="29">
+        <f>IFERROR(SUMPRODUCT(($A13='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="N13" s="29">
+        <f>IFERROR(SUMPRODUCT(($A13='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="O13" s="29">
+        <f>IFERROR(SUMPRODUCT(($A13='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>3.8626609442060089E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A14='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A14='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C14" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A14='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A14='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D14" s="29">
+        <f>IFERROR(SUMPRODUCT(($A14='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A14='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="29">
         <f>IFERROR(SUMPRODUCT(($A14='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A14='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="C14" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A14='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A14='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D14" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A14='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A14='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E14" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A14='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A14='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F14" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A14='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A14='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="29">
+        <f>IFERROR(SUMPRODUCT(($A14='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A14='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29">
+        <f>IFERROR(SUMPRODUCT(($A14='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>3.6585365853658534E-2</v>
+      </c>
+      <c r="N14" s="29">
+        <f>IFERROR(SUMPRODUCT(($A14='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="O14" s="29">
+        <f>IFERROR(SUMPRODUCT(($A14='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>1.7167381974248927E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A15='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A15='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C15" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A15='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A15='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D15" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A15='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A15='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="E15" s="29" t="str">
         <f>IFERROR(SUMPRODUCT(($A15='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A15='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>-</v>
       </c>
-      <c r="C15" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A15='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A15='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+      <c r="F15" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A15='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A15='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
         <v>-</v>
       </c>
-      <c r="D15" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A15='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A15='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E15" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A15='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A15='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F15" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A15='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A15='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="29">
+        <f>IFERROR(SUMPRODUCT(($A16='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A16='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="C16" s="29">
+        <f>IFERROR(SUMPRODUCT(($A16='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A16='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="D16" s="29">
+        <f>IFERROR(SUMPRODUCT(($A16='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A16='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="29">
         <f>IFERROR(SUMPRODUCT(($A16='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A16='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>1</v>
       </c>
-      <c r="C16" s="29">
-        <f>IFERROR(SUMPRODUCT(($A16='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A16='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>0.81481481481481477</v>
-      </c>
-      <c r="D16" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A16='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A16='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E16" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A16='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A16='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F16" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A16='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A16='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="29">
+        <f>IFERROR(SUMPRODUCT(($A16='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A16='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>0.8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="29">
+        <f>IFERROR(SUMPRODUCT(($A16='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1)/SUMPRODUCT(('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="L16" s="29">
+        <f>IFERROR(SUMPRODUCT(($A16='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M16" s="29">
+        <f>IFERROR(SUMPRODUCT(($A16='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="N16" s="29">
+        <f>IFERROR(SUMPRODUCT(($A16='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>6.7567567567567571E-2</v>
+      </c>
+      <c r="O16" s="29">
+        <f>IFERROR(SUMPRODUCT(($A16='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>2.1459227467811159E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="29">
+        <f>IFERROR(SUMPRODUCT(($A17='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A17='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C17" s="29">
+        <f>IFERROR(SUMPRODUCT(($A17='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A17='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="29">
+        <f>IFERROR(SUMPRODUCT(($A17='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A17='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
         <f>IFERROR(SUMPRODUCT(($A17='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A17='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>0.8</v>
       </c>
-      <c r="C17" s="29">
-        <f>IFERROR(SUMPRODUCT(($A17='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A17='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D17" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A17='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A17='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E17" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A17='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A17='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F17" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A17='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A17='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="29">
+        <f>IFERROR(SUMPRODUCT(($A17='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A17='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="29">
+        <f>IFERROR(SUMPRODUCT(($A17='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1)/SUMPRODUCT(('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="L17" s="29">
+        <f>IFERROR(SUMPRODUCT(($A17='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>0.10989010989010989</v>
+      </c>
+      <c r="M17" s="29">
+        <f>IFERROR(SUMPRODUCT(($A17='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>9.3495934959349589E-2</v>
+      </c>
+      <c r="N17" s="29">
+        <f>IFERROR(SUMPRODUCT(($A17='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>9.0090090090090086E-2</v>
+      </c>
+      <c r="O17" s="29">
+        <f>IFERROR(SUMPRODUCT(($A17='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>0.12446351931330472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A18='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A18='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C18" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A18='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A18='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D18" s="29">
+        <f>IFERROR(SUMPRODUCT(($A18='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A18='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="E18" s="29">
         <f>IFERROR(SUMPRODUCT(($A18='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A18='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>0.75</v>
       </c>
-      <c r="C18" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A18='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A18='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+      <c r="F18" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A18='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A18='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
         <v>-</v>
       </c>
-      <c r="D18" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A18='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A18='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E18" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A18='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A18='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F18" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A18='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A18='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29">
+        <f>IFERROR(SUMPRODUCT(($A18='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>7.7235772357723581E-2</v>
+      </c>
+      <c r="N18" s="29">
+        <f>IFERROR(SUMPRODUCT(($A18='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>3.6036036036036036E-2</v>
+      </c>
+      <c r="O18" s="29"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="29">
+        <f>IFERROR(SUMPRODUCT(($A19='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A19='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="29">
+        <f>IFERROR(SUMPRODUCT(($A19='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A19='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D19" s="29">
+        <f>IFERROR(SUMPRODUCT(($A19='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A19='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E19" s="29">
         <f>IFERROR(SUMPRODUCT(($A19='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A19='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>1</v>
       </c>
-      <c r="C19" s="29">
-        <f>IFERROR(SUMPRODUCT(($A19='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A19='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A19='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A19='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E19" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A19='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A19='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F19" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A19='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A19='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="29">
+        <f>IFERROR(SUMPRODUCT(($A19='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A19='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>0.32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="29">
+        <f>IFERROR(SUMPRODUCT(($A19='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1)/SUMPRODUCT(('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>3.5087719298245612E-2</v>
+      </c>
+      <c r="L19" s="29">
+        <f>IFERROR(SUMPRODUCT(($A19='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>6.5934065934065936E-2</v>
+      </c>
+      <c r="M19" s="29">
+        <f>IFERROR(SUMPRODUCT(($A19='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>5.6910569105691054E-2</v>
+      </c>
+      <c r="N19" s="29">
+        <f>IFERROR(SUMPRODUCT(($A19='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>4.954954954954955E-2</v>
+      </c>
+      <c r="O19" s="29">
+        <f>IFERROR(SUMPRODUCT(($A19='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>0.1072961373390558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A20='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A20='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C20" s="29">
+        <f>IFERROR(SUMPRODUCT(($A20='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A20='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="D20" s="29">
+        <f>IFERROR(SUMPRODUCT(($A20='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A20='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="29">
         <f>IFERROR(SUMPRODUCT(($A20='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A20='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>0.3</v>
       </c>
-      <c r="C20" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A20='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A20='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D20" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A20='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A20='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E20" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A20='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A20='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F20" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A20='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A20='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="29">
+        <f>IFERROR(SUMPRODUCT(($A20='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A20='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>0.875</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29">
+        <f>IFERROR(SUMPRODUCT(($A20='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="M20" s="29">
+        <f>IFERROR(SUMPRODUCT(($A20='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>2.032520325203252E-2</v>
+      </c>
+      <c r="N20" s="29">
+        <f>IFERROR(SUMPRODUCT(($A20='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>4.5045045045045043E-2</v>
+      </c>
+      <c r="O20" s="29">
+        <f>IFERROR(SUMPRODUCT(($A20='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>3.4334763948497854E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="29">
+        <f>IFERROR(SUMPRODUCT(($A21='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A21='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>0.9</v>
+      </c>
+      <c r="C21" s="29">
+        <f>IFERROR(SUMPRODUCT(($A21='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A21='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="29">
+        <f>IFERROR(SUMPRODUCT(($A21='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A21='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="29">
         <f>IFERROR(SUMPRODUCT(($A21='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A21='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>0.81818181818181823</v>
       </c>
-      <c r="C21" s="29">
-        <f>IFERROR(SUMPRODUCT(($A21='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A21='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
-        <v>0.9</v>
-      </c>
-      <c r="D21" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A21='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A21='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E21" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A21='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A21='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F21" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A21='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A21='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="29">
+        <f>IFERROR(SUMPRODUCT(($A21='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A21='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="29">
+        <f>IFERROR(SUMPRODUCT(($A21='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1)/SUMPRODUCT(('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>5.8479532163742687E-2</v>
+      </c>
+      <c r="L21" s="29">
+        <f>IFERROR(SUMPRODUCT(($A21='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1)/SUMPRODUCT(('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>2.197802197802198E-2</v>
+      </c>
+      <c r="M21" s="29">
+        <f>IFERROR(SUMPRODUCT(($A21='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>3.6585365853658534E-2</v>
+      </c>
+      <c r="N21" s="29">
+        <f>IFERROR(SUMPRODUCT(($A21='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>4.954954954954955E-2</v>
+      </c>
+      <c r="O21" s="29">
+        <f>IFERROR(SUMPRODUCT(($A21='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
+        <v>3.4334763948497854E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A22='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A22='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="C22" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A22='2015'!$B$2:$B$81)*('2015'!$C$2:$C$81)*1)/SUMPRODUCT(($A22='2015'!$B$2:$B$81)*('2015'!$D$2:$D$81)*1),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D22" s="29">
+        <f>IFERROR(SUMPRODUCT(($A22='2016'!$B$2:$B$70)*('2016'!$C$2:$C$70)*1)/SUMPRODUCT(($A22='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>0.75</v>
+      </c>
+      <c r="E22" s="29">
         <f>IFERROR(SUMPRODUCT(($A22='2017'!$B$2:$B$61)*('2017'!$C$2:$C$61)*1)/SUMPRODUCT(($A22='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1),"-")</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="C22" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A22='2014'!$B$2:$B$61)*('2014'!$C$2:$C$61)*1)/SUMPRODUCT(($A22='2014'!$B$2:$B$61)*('2014'!$D$2:$D$61)*1),"-")</f>
+      <c r="F22" s="29" t="str">
+        <f>IFERROR(SUMPRODUCT(($A22='2018'!$B$2:$B$97)*('2018'!$C$2:$C$97)*1)/SUMPRODUCT(($A22='2018'!$B$2:$B$97)*('2018'!$D$2:$D$97)*1),"-")</f>
         <v>-</v>
       </c>
-      <c r="D22" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A22='2015'!$B$2:$B$85)*('2015'!$C$2:$C$85)*1)/SUMPRODUCT(($A22='2015'!$B$2:$B$85)*('2015'!$D$2:$D$85)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="E22" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A22='2016'!$B$2:$B$61)*('2016'!$C$2:$C$61)*1)/SUMPRODUCT(($A22='2016'!$B$2:$B$61)*('2016'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="F22" s="29" t="str">
-        <f>IFERROR(SUMPRODUCT(($A22='2018'!$B$2:$B$61)*('2018'!$C$2:$C$61)*1)/SUMPRODUCT(($A22='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1),"-")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29">
+        <f>IFERROR(SUMPRODUCT(($A22='2016'!$B$2:$B$70)*('2016'!$D$2:$D$70)*1)/SUMPRODUCT(('2016'!$D$2:$D$70)*1),"-")</f>
+        <v>3.2520325203252036E-2</v>
+      </c>
+      <c r="N22" s="29">
+        <f>IFERROR(SUMPRODUCT(($A22='2017'!$B$2:$B$61)*('2017'!$D$2:$D$61)*1)/SUMPRODUCT(('2017'!$D$2:$D$61)*1),"-")</f>
+        <v>3.1531531531531529E-2</v>
+      </c>
+      <c r="O22" s="29"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B23" s="29">
+        <f>SUM('2014'!$C$2:$C$61)/SUM('2014'!$D$2:$D$61)</f>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="C23" s="29">
+        <f>SUM('2015'!$C$2:$C$81)/SUM('2015'!$D$2:$D$81)</f>
+        <v>0.86263736263736268</v>
+      </c>
+      <c r="D23" s="29">
+        <f>SUM('2016'!$C$2:$C$70)/SUM('2016'!$D$2:$D$70)</f>
+        <v>0.85365853658536583</v>
+      </c>
+      <c r="E23" s="29">
         <f>SUM('2017'!$C$2:$C$61)/SUM('2017'!$D$2:$D$61)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="C23" s="29">
-        <f>SUM('2014'!$C$2:$C$61)/SUM('2014'!$D$2:$D$61)</f>
-        <v>0.89473684210526316</v>
-      </c>
-      <c r="D23" s="29" t="e">
-        <f>SUM('2015'!$C$2:$C$85)/SUM('2015'!$D$2:$D$85)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="29" t="e">
-        <f>SUM('2016'!$C$2:$C$61)/SUM('2016'!$D$2:$D$61)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="29" t="e">
-        <f>SUM('2018'!$C$2:$C$61)/SUM('2018'!$D$2:$D$61)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="29">
+        <f>SUM('2018'!$C$2:$C$97)/SUM('2018'!$D$2:$D$97)</f>
+        <v>0.72573839662447259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="29">
-        <f>SUMPRODUCT(("Y"='2017'!$E$2:$E$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$E$2:$E$61)*('2017'!$D$2:$D$61))</f>
-        <v>0.5</v>
-      </c>
-      <c r="C24" s="29">
         <f>SUMPRODUCT(("Y"='2014'!$E$2:$E$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$E$2:$E$61)*('2014'!$D$2:$D$61))</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D24" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2015'!$E$2:$E$85)*('2015'!$C$2:$C$85))/SUMPRODUCT(("Y"='2015'!$E$2:$E$85)*('2015'!$D$2:$D$85))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2016'!$E$2:$E$61)*('2016'!$C$2:$C$61))/SUMPRODUCT(("Y"='2016'!$E$2:$E$61)*('2016'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2018'!$E$2:$E$61)*('2018'!$C$2:$C$61))/SUMPRODUCT(("Y"='2018'!$E$2:$E$61)*('2018'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="29">
+        <f>SUMPRODUCT(("Y"='2015'!$E$2:$E$81)*('2015'!$C$2:$C$81))/SUMPRODUCT(("Y"='2015'!$E$2:$E$81)*('2015'!$D$2:$D$81))</f>
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="29">
+        <f>SUMPRODUCT(("Y"='2016'!$E$2:$E$70)*('2016'!$C$2:$C$70))/SUMPRODUCT(("Y"='2016'!$E$2:$E$70)*('2016'!$D$2:$D$70))</f>
+        <v>0.75438596491228072</v>
+      </c>
+      <c r="E24" s="29">
+        <f>SUMPRODUCT(("Y"='2017'!$E$2:$E$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$E$2:$E$61)*('2017'!$D$2:$D$61))</f>
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="29">
+        <f>SUMPRODUCT(("Y"='2018'!$E$2:$E$97)*('2018'!$C$2:$C$97))/SUMPRODUCT(("Y"='2018'!$E$2:$E$97)*('2018'!$D$2:$D$97))</f>
+        <v>0.42592592592592593</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="29">
+        <f>SUMPRODUCT(("Y"='2014'!$F$2:$F$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$F$2:$F$61)*('2014'!$D$2:$D$61))</f>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C25" s="29">
+        <f>SUMPRODUCT(("Y"='2015'!$F$2:$F$81)*('2015'!$C$2:$C$81))/SUMPRODUCT(("Y"='2015'!$F$2:$F$81)*('2015'!$D$2:$D$81))</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="D25" s="29">
+        <f>SUMPRODUCT(("Y"='2016'!$F$2:$F$70)*('2016'!$C$2:$C$70))/SUMPRODUCT(("Y"='2016'!$F$2:$F$70)*('2016'!$D$2:$D$70))</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E25" s="29">
         <f>SUMPRODUCT(("Y"='2017'!$F$2:$F$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$F$2:$F$61)*('2017'!$D$2:$D$61))</f>
         <v>0.87951807228915657</v>
       </c>
-      <c r="C25" s="29">
-        <f>SUMPRODUCT(("Y"='2014'!$F$2:$F$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$F$2:$F$61)*('2014'!$D$2:$D$61))</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D25" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2015'!$F$2:$F$85)*('2015'!$C$2:$C$85))/SUMPRODUCT(("Y"='2015'!$F$2:$F$85)*('2015'!$D$2:$D$85))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2016'!$F$2:$F$61)*('2016'!$C$2:$C$61))/SUMPRODUCT(("Y"='2016'!$F$2:$F$61)*('2016'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2018'!$F$2:$F$61)*('2018'!$C$2:$C$61))/SUMPRODUCT(("Y"='2018'!$F$2:$F$61)*('2018'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="29">
+        <f>SUMPRODUCT(("Y"='2018'!$F$2:$F$97)*('2018'!$C$2:$C$97))/SUMPRODUCT(("Y"='2018'!$F$2:$F$97)*('2018'!$D$2:$D$97))</f>
+        <v>0.70873786407766992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="29">
+        <f>SUMPRODUCT(("Y"='2014'!$G$2:$G$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$G$2:$G$61)*('2014'!$D$2:$D$61))</f>
+        <v>0.94871794871794868</v>
+      </c>
+      <c r="C26" s="29">
+        <f>SUMPRODUCT(("Y"='2015'!$G$2:$G$81)*('2015'!$C$2:$C$81))/SUMPRODUCT(("Y"='2015'!$G$2:$G$81)*('2015'!$D$2:$D$81))</f>
+        <v>0.9042553191489362</v>
+      </c>
+      <c r="D26" s="29">
+        <f>SUMPRODUCT(("Y"='2016'!$G$2:$G$70)*('2016'!$C$2:$C$70))/SUMPRODUCT(("Y"='2016'!$G$2:$G$70)*('2016'!$D$2:$D$70))</f>
+        <v>0.91208791208791207</v>
+      </c>
+      <c r="E26" s="29">
         <f>SUMPRODUCT(("Y"='2017'!$G$2:$G$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$G$2:$G$61)*('2017'!$D$2:$D$61))</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="C26" s="29">
-        <f>SUMPRODUCT(("Y"='2014'!$G$2:$G$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$G$2:$G$61)*('2014'!$D$2:$D$61))</f>
-        <v>0.94871794871794868</v>
-      </c>
-      <c r="D26" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2015'!$G$2:$G$85)*('2015'!$C$2:$C$85))/SUMPRODUCT(("Y"='2015'!$G$2:$G$85)*('2015'!$D$2:$D$85))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2016'!$G$2:$G$61)*('2016'!$C$2:$C$61))/SUMPRODUCT(("Y"='2016'!$G$2:$G$61)*('2016'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2018'!$G$2:$G$61)*('2018'!$C$2:$C$61))/SUMPRODUCT(("Y"='2018'!$G$2:$G$61)*('2018'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="29">
+        <f>SUMPRODUCT(("Y"='2018'!$G$2:$G$97)*('2018'!$C$2:$C$97))/SUMPRODUCT(("Y"='2018'!$G$2:$G$97)*('2018'!$D$2:$D$97))</f>
+        <v>0.93846153846153846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="29">
+        <f>SUMPRODUCT(("Y"='2014'!$H$2:$H$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$H$2:$H$61)*('2014'!$D$2:$D$61))</f>
+        <v>0.92957746478873238</v>
+      </c>
+      <c r="C27" s="29">
+        <f>SUMPRODUCT(("Y"='2015'!$H$2:$H$81)*('2015'!$C$2:$C$81))/SUMPRODUCT(("Y"='2015'!$H$2:$H$81)*('2015'!$D$2:$D$81))</f>
+        <v>0.93617021276595747</v>
+      </c>
+      <c r="D27" s="29">
+        <f>SUMPRODUCT(("Y"='2016'!$H$2:$H$70)*('2016'!$C$2:$C$70))/SUMPRODUCT(("Y"='2016'!$H$2:$H$70)*('2016'!$D$2:$D$70))</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E27" s="29">
         <f>SUMPRODUCT(("Y"='2017'!$H$2:$H$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$H$2:$H$61)*('2017'!$D$2:$D$61))</f>
         <v>0.90598290598290598</v>
       </c>
-      <c r="C27" s="29">
-        <f>SUMPRODUCT(("Y"='2014'!$H$2:$H$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$H$2:$H$61)*('2014'!$D$2:$D$61))</f>
-        <v>0.92957746478873238</v>
-      </c>
-      <c r="D27" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2015'!$H$2:$H$85)*('2015'!$C$2:$C$85))/SUMPRODUCT(("Y"='2015'!$H$2:$H$85)*('2015'!$D$2:$D$85))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2016'!$H$2:$H$61)*('2016'!$C$2:$C$61))/SUMPRODUCT(("Y"='2016'!$H$2:$H$61)*('2016'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2018'!$H$2:$H$61)*('2018'!$C$2:$C$61))/SUMPRODUCT(("Y"='2018'!$H$2:$H$61)*('2018'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="29">
+        <f>SUMPRODUCT(("Y"='2018'!$H$2:$H$97)*('2018'!$C$2:$C$97))/SUMPRODUCT(("Y"='2018'!$H$2:$H$97)*('2018'!$D$2:$D$97))</f>
+        <v>0.65734265734265729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="29">
+        <f>SUMPRODUCT(("Y"='2014'!$I$2:$I$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$I$2:$I$61)*('2014'!$D$2:$D$61))</f>
+        <v>0.87</v>
+      </c>
+      <c r="C28" s="29">
+        <f>SUMPRODUCT(("Y"='2015'!$I$2:$I$81)*('2015'!$C$2:$C$81))/SUMPRODUCT(("Y"='2015'!$I$2:$I$81)*('2015'!$D$2:$D$81))</f>
+        <v>0.75510204081632648</v>
+      </c>
+      <c r="D28" s="29">
+        <f>SUMPRODUCT(("Y"='2016'!$I$2:$I$70)*('2016'!$C$2:$C$70))/SUMPRODUCT(("Y"='2016'!$I$2:$I$70)*('2016'!$D$2:$D$70))</f>
+        <v>0.875</v>
+      </c>
+      <c r="E28" s="29">
         <f>SUMPRODUCT(("Y"='2017'!$I$2:$I$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$I$2:$I$61)*('2017'!$D$2:$D$61))</f>
         <v>0.75238095238095237</v>
       </c>
-      <c r="C28" s="29">
-        <f>SUMPRODUCT(("Y"='2014'!$I$2:$I$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$I$2:$I$61)*('2014'!$D$2:$D$61))</f>
-        <v>0.87</v>
-      </c>
-      <c r="D28" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2015'!$I$2:$I$85)*('2015'!$C$2:$C$85))/SUMPRODUCT(("Y"='2015'!$I$2:$I$85)*('2015'!$D$2:$D$85))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2016'!$I$2:$I$61)*('2016'!$C$2:$C$61))/SUMPRODUCT(("Y"='2016'!$I$2:$I$61)*('2016'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2018'!$I$2:$I$61)*('2018'!$C$2:$C$61))/SUMPRODUCT(("Y"='2018'!$I$2:$I$61)*('2018'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="29">
+        <f>SUMPRODUCT(("Y"='2018'!$I$2:$I$97)*('2018'!$C$2:$C$97))/SUMPRODUCT(("Y"='2018'!$I$2:$I$97)*('2018'!$D$2:$D$97))</f>
+        <v>0.82978723404255317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B29" s="29">
+        <f>SUMPRODUCT(("Y"='2014'!$J$2:$J$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$J$2:$J$61)*('2014'!$D$2:$D$61))</f>
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="29">
+        <f>SUMPRODUCT(("Y"='2015'!$J$2:$J$81)*('2015'!$C$2:$C$81))/SUMPRODUCT(("Y"='2015'!$J$2:$J$81)*('2015'!$D$2:$D$81))</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="29">
+        <f>SUMPRODUCT(("Y"='2016'!$J$2:$J$70)*('2016'!$C$2:$C$70))/SUMPRODUCT(("Y"='2016'!$J$2:$J$70)*('2016'!$D$2:$D$70))</f>
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="29">
         <f>SUMPRODUCT(("Y"='2017'!$J$2:$J$61)*('2017'!$C$2:$C$61))/SUMPRODUCT(("Y"='2017'!$J$2:$J$61)*('2017'!$D$2:$D$61))</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C29" s="29">
-        <f>SUMPRODUCT(("Y"='2014'!$J$2:$J$61)*('2014'!$C$2:$C$61))/SUMPRODUCT(("Y"='2014'!$J$2:$J$61)*('2014'!$D$2:$D$61))</f>
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2015'!$J$2:$J$85)*('2015'!$C$2:$C$85))/SUMPRODUCT(("Y"='2015'!$J$2:$J$85)*('2015'!$D$2:$D$85))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2016'!$J$2:$J$61)*('2016'!$C$2:$C$61))/SUMPRODUCT(("Y"='2016'!$J$2:$J$61)*('2016'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="29" t="e">
-        <f>SUMPRODUCT(("Y"='2018'!$J$2:$J$61)*('2018'!$C$2:$C$61))/SUMPRODUCT(("Y"='2018'!$J$2:$J$61)*('2018'!$D$2:$D$61))</f>
-        <v>#DIV/0!</v>
+      <c r="F29" s="29">
+        <f>SUMPRODUCT(("Y"='2018'!$J$2:$J$97)*('2018'!$C$2:$C$97))/SUMPRODUCT(("Y"='2018'!$J$2:$J$97)*('2018'!$D$2:$D$97))</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="29">
+        <f>SUMPRODUCT(("Y"='2014'!$H$2:$H$61)*('2014'!$D$2:$D$61))/SUMPRODUCT(('2014'!$D$2:$D$61))</f>
+        <v>0.41520467836257308</v>
+      </c>
+      <c r="C30" s="29">
+        <f>SUMPRODUCT(("Y"='2015'!$H$2:$H$61)*('2015'!$D$2:$D$61))/SUMPRODUCT(('2015'!$D$2:$D$61))</f>
+        <v>0.51648351648351654</v>
+      </c>
+      <c r="D30" s="29">
+        <f>SUMPRODUCT(("Y"='2016'!$H$2:$H$70)*('2016'!$D$2:$D$70))/SUMPRODUCT(('2016'!$D$2:$D$70))</f>
+        <v>0.51219512195121952</v>
+      </c>
+      <c r="E30" s="29">
+        <f>SUMPRODUCT(("Y"='2017'!$H$2:$H$61)*('2017'!$D$2:$D$61))/SUMPRODUCT(('2017'!$D$2:$D$61))</f>
+        <v>0.52702702702702697</v>
+      </c>
+      <c r="F30" s="29">
+        <f>SUMPRODUCT(("Y"='2018'!$H$2:$H$97)*('2018'!$D$2:$D$97))/SUMPRODUCT(('2018'!$D$2:$D$97))</f>
+        <v>0.6033755274261603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" s="29">
+        <f>SUMPRODUCT(("Y"='2014'!$I$2:$I$61)*('2014'!$D$2:$D$61))/SUMPRODUCT(('2014'!$D$2:$D$61))</f>
+        <v>0.58479532163742687</v>
+      </c>
+      <c r="C31" s="29">
+        <f>SUMPRODUCT(("Y"='2015'!$I$2:$I$61)*('2015'!$D$2:$D$61))/SUMPRODUCT(('2015'!$D$2:$D$61))</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="D31" s="29">
+        <f>SUMPRODUCT(("Y"='2016'!$I$2:$I$70)*('2016'!$D$2:$D$70))/SUMPRODUCT(('2016'!$D$2:$D$70))</f>
+        <v>0.48780487804878048</v>
+      </c>
+      <c r="E31" s="29">
+        <f>SUMPRODUCT(("Y"='2017'!$I$2:$I$61)*('2017'!$D$2:$D$61))/SUMPRODUCT(('2017'!$D$2:$D$61))</f>
+        <v>0.47297297297297297</v>
+      </c>
+      <c r="F31" s="29">
+        <f>SUMPRODUCT(("Y"='2018'!$I$2:$I$97)*('2018'!$D$2:$D$97))/SUMPRODUCT(('2018'!$D$2:$D$97))</f>
+        <v>0.39662447257383965</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N2:N22">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K22">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L22">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M22">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F22">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>0.8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2097,7 +2901,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3715,8 +4519,8 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L36" sqref="L36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5180,11 +5984,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5236,820 +6040,1292 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="B2" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="D2" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="C3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="B4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="32">
+        <v>1.75</v>
+      </c>
+      <c r="D4" s="32">
+        <v>2</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="B5" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="B6" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="B7" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="36" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="B8" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="32">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32">
+        <v>3</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="B9" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="30">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="B10" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="B11" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="B12" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="B13" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="32">
+        <v>1</v>
+      </c>
+      <c r="D13" s="32">
+        <v>1</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="30">
         <v>7</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="B14" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="B15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="D15" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="B16" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="B17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="B18" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="B19" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="B20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="D20" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="34"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="B21" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="34"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="B22" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="B23" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="32">
+        <v>1</v>
+      </c>
+      <c r="D23" s="32">
+        <v>1</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="B24" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="32">
+        <v>0</v>
+      </c>
+      <c r="D24" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="34"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="B25" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="34"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="B26" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="34"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
         <v>12</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="B27" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="32">
+        <v>1</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="34"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="B28" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="G28" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="34"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="B29" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="34"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="B30" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="D30" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="B31" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="B32" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="34" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="B33" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="D33" s="32">
+        <v>1.25</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="34"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="B34" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="34"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="B35" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="34"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="B36" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="34"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="B37" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="32">
+        <v>0</v>
+      </c>
+      <c r="D37" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="34"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="B38" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="32">
+        <v>0</v>
+      </c>
+      <c r="D38" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="34"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="B39" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="32">
+        <v>2.25</v>
+      </c>
+      <c r="D39" s="32">
+        <v>2.25</v>
+      </c>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="34"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="B40" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="D40" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="34"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="B41" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="34"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+      <c r="A42" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="34"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="34"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="1"/>
+      <c r="A44" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="D44" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="G44" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="36"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="D45" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="36"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="A46" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="D46" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="34"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="34"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="32">
+        <v>1.5</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="34"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="34"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="34"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
-      <c r="B51" s="19" t="s">
-        <v>56</v>
-      </c>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
       <c r="E51" s="3"/>
@@ -6059,13 +7335,9 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="O51" s="27"/>
-    </row>
-    <row r="52" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
-      <c r="B52" s="21" t="s">
-        <v>63</v>
-      </c>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
       <c r="E52" s="3"/>
@@ -6076,11 +7348,8 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
-      <c r="B53" s="19" t="s">
-        <v>61</v>
-      </c>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
       <c r="E53" s="3"/>
@@ -6091,11 +7360,8 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
-      <c r="B54" s="19" t="s">
-        <v>65</v>
-      </c>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
       <c r="E54" s="3"/>
@@ -6106,7 +7372,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
@@ -6118,19 +7384,18 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
@@ -6142,7 +7407,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
@@ -6154,7 +7419,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
@@ -6166,18 +7431,19 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
@@ -6189,7 +7455,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
@@ -6201,7 +7467,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
@@ -6213,7 +7479,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
@@ -6260,9 +7526,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
+      <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="25"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
       <c r="E68" s="3"/>
@@ -6275,6 +7543,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="24"/>
       <c r="D69" s="24"/>
       <c r="E69" s="3"/>
@@ -6287,6 +7556,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="25"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
       <c r="E70" s="3"/>
@@ -6299,6 +7569,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="25"/>
+      <c r="B71" s="26"/>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
       <c r="E71" s="3"/>
@@ -6308,7 +7579,6 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="1"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="25"/>
@@ -6322,6 +7592,7 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
+      <c r="L72" s="1"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="25"/>
@@ -6374,7 +7645,6 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
-      <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="25"/>
@@ -6442,8 +7712,6 @@
       <c r="K81" s="3"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
-      <c r="B82" s="26"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
       <c r="E82" s="3"/>
@@ -6454,56 +7722,6 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="25"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6512,11 +7730,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6568,750 +7786,1769 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24">
+        <v>2</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
+      <c r="L2" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="A3" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3">
+        <v>0.75</v>
+      </c>
+      <c r="D3">
+        <v>0.75</v>
+      </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="A4" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1.25</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="A6" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="A7" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1.5</v>
+      </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
+      <c r="L7" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1.25</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="A9" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="A11" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="A12" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="24">
+        <v>1</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="A13" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="24">
+        <v>1</v>
+      </c>
+      <c r="D13" s="24">
+        <v>2</v>
+      </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
+      <c r="L13" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="A14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.25</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="A15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="24">
+        <v>2</v>
+      </c>
+      <c r="D15" s="24">
+        <v>2</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
+      <c r="L15" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="24">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24">
+        <v>1</v>
+      </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="A18" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="24">
+        <v>1.25</v>
+      </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="A19" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="27" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0</v>
+      </c>
+      <c r="D23" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="A24" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="A25" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="A26" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="24">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24">
+        <v>1</v>
+      </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+      <c r="A27" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="24">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="3"/>
+      <c r="A28" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
+      <c r="A29" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1.5</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
+      <c r="L29" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+      <c r="A30" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+      <c r="A31" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+      <c r="A32" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="24">
+        <v>1</v>
+      </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="A34" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
+      <c r="A35" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="A36" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="3"/>
+      <c r="A37" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="24">
+        <v>2.25</v>
+      </c>
+      <c r="D37" s="24">
+        <v>2.25</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="A38" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D38" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="A39" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="24">
+        <v>1</v>
+      </c>
+      <c r="D39" s="24">
+        <v>1</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="A41" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D41" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="I41" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="A42" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="24">
+        <v>1</v>
+      </c>
+      <c r="D42" s="24">
+        <v>1</v>
+      </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="A43" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="A44" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="I44" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="A45" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D45" s="24">
+        <v>1</v>
+      </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="3"/>
+      <c r="A46" s="25">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="D46" s="24">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="H46" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="A48" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="D48" s="24">
+        <v>2.5</v>
+      </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="H48" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="A49" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="24">
+        <v>1</v>
+      </c>
+      <c r="D49" s="24">
+        <v>1</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="A50" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="F50" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="A51" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="A52" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D52" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="I52" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="3"/>
+      <c r="A53" s="25">
+        <v>21</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="24">
+        <v>2.25</v>
+      </c>
+      <c r="D53" s="24">
+        <v>2.5</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="I53" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="3"/>
+      <c r="A54" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="24">
+        <v>1</v>
+      </c>
+      <c r="D54" s="24">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="I54" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="3"/>
+      <c r="A55" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
+      <c r="I55" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="3"/>
+      <c r="A56" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D56" s="24">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
+      <c r="A57" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D57" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
+      <c r="F57" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="I57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="K57" s="3"/>
+      <c r="L57" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="A58" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D58" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+      <c r="I58" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="A59" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="24">
+        <v>1</v>
+      </c>
+      <c r="D59" s="24">
+        <v>1.5</v>
+      </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="I59" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
+      <c r="L59" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+      <c r="A60" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="G60" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+      <c r="A61" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D61" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+      <c r="A62" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="I62" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D63" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D65" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D70" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K70" s="3"/>
+      <c r="L70" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7321,16 +9558,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -7377,750 +9614,2007 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="A2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="24">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24">
+        <v>1</v>
+      </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="A3" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D3" s="24">
+        <v>1</v>
+      </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="24">
+        <v>2</v>
+      </c>
+      <c r="D5" s="24">
+        <v>2</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
+      <c r="L6" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="A7" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="A9" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.25</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="24">
+        <v>2.25</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
+      <c r="A11" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+      <c r="A12" s="25">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="24">
+        <v>2</v>
+      </c>
+      <c r="D12" s="24">
+        <v>2</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="25">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="24">
+        <v>2</v>
+      </c>
+      <c r="D13" s="24">
+        <v>2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="A14" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="24">
+        <v>1.5</v>
+      </c>
       <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="A15" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.25</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="3"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
+      <c r="L17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="24">
+        <v>1</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
+      <c r="L23" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="24">
+        <v>1.75</v>
+      </c>
+      <c r="D24" s="24">
+        <v>2</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
+      <c r="L25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="O27" s="27"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="3"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="24">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="A33" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
+      <c r="A34" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D34" s="24">
+        <v>1</v>
+      </c>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="A35" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="24">
+        <v>1</v>
+      </c>
+      <c r="D35" s="24">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
+      <c r="A36" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="A37" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D37" s="24">
+        <v>1.25</v>
+      </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
+      <c r="L37" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
+      <c r="A38" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="24">
+        <v>1</v>
+      </c>
+      <c r="D38" s="24">
+        <v>1</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
+      <c r="A39" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+      <c r="A40" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
+      <c r="A41" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="I41" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+      <c r="A42" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
+      <c r="A43" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D43" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
+      <c r="A44" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="24">
+        <v>2.25</v>
+      </c>
+      <c r="D44" s="24">
+        <v>2.5</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="A45" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="24">
+        <v>0</v>
+      </c>
+      <c r="D45" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
+      <c r="A46" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="24">
+        <v>1.25</v>
+      </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="H46" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="J46" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="K46" s="3"/>
+      <c r="L46" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
+      <c r="A47" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="24">
+        <v>1</v>
+      </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
+      <c r="A48" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="24">
+        <v>1</v>
+      </c>
+      <c r="D48" s="24">
+        <v>1</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="24">
+        <v>1</v>
+      </c>
+      <c r="D52" s="24">
+        <v>1</v>
+      </c>
       <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="F52" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="I52" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="24">
+        <v>1.25</v>
+      </c>
+      <c r="D53" s="24">
+        <v>1.5</v>
+      </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
+      <c r="F53" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="24">
+        <v>0</v>
+      </c>
+      <c r="D54" s="24">
+        <v>1</v>
+      </c>
       <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="I54" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="L54" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="25">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D55" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="H55" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
+      <c r="L55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D56" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="3"/>
+    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="24">
+        <v>0</v>
+      </c>
+      <c r="D57" s="24">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
+      <c r="H57" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
+      <c r="L57" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="24">
+        <v>0</v>
+      </c>
+      <c r="D58" s="24">
+        <v>0.75</v>
+      </c>
       <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
+      <c r="F58" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="J58" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
+      <c r="L58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="D59" s="24">
+        <v>1.25</v>
+      </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
+      <c r="F59" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="D60" s="24">
+        <v>1</v>
+      </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="G60" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="25">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="24">
+        <v>1.75</v>
+      </c>
+      <c r="D61" s="24">
+        <v>2</v>
+      </c>
       <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="24">
+        <v>0.5</v>
+      </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="I62" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
+      <c r="O62" s="27"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D63" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="25"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="25"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="1"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="25"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="25"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="25"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="25"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="25"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="25"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="25"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="25"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="25"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="25"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="25"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="26"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8133,7 +11627,7 @@
   <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F35"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Exam 7 - Exam Analysis.xlsx
+++ b/Data/Exam 7 - Exam Analysis.xlsx
@@ -15,12 +15,12 @@
     <sheet name="2018" sheetId="8" r:id="rId6"/>
     <sheet name="RF" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="225">
   <si>
     <t>Mack (2000)</t>
   </si>
@@ -952,6 +952,18 @@
   </si>
   <si>
     <t>Especially Brehm 2</t>
+  </si>
+  <si>
+    <t>Venter</t>
+  </si>
+  <si>
+    <t>Hurlimann</t>
+  </si>
+  <si>
+    <t>Mack 2000</t>
+  </si>
+  <si>
+    <t>Maybe</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1194,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1276,6 +1288,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2"/>
@@ -1593,7 +1608,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,6 +2088,9 @@
         <f>IFERROR(SUMPRODUCT(($A10='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
         <v>0.14592274678111589</v>
       </c>
+      <c r="S10" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2120,6 +2138,9 @@
       <c r="O11" s="29">
         <f>IFERROR(SUMPRODUCT(($A11='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
         <v>4.7210300429184553E-2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -2160,6 +2181,9 @@
         <v>4.0540540540540543E-2</v>
       </c>
       <c r="O12" s="29"/>
+      <c r="S12" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2207,6 +2231,9 @@
       <c r="O13" s="29">
         <f>IFERROR(SUMPRODUCT(($A13='2018'!$B$2:$B$61)*('2018'!$D$2:$D$61)*1)/SUMPRODUCT(('2018'!$D$2:$D$61)*1),"-")</f>
         <v>3.8626609442060089E-2</v>
+      </c>
+      <c r="S13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -2671,7 +2698,7 @@
       </c>
       <c r="F25" s="29">
         <f>SUMPRODUCT(("Y"='2018'!$F$2:$F$97)*('2018'!$C$2:$C$97))/SUMPRODUCT(("Y"='2018'!$F$2:$F$97)*('2018'!$D$2:$D$97))</f>
-        <v>0.70873786407766992</v>
+        <v>0.73684210526315785</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2696,7 +2723,7 @@
       </c>
       <c r="F26" s="29">
         <f>SUMPRODUCT(("Y"='2018'!$G$2:$G$97)*('2018'!$C$2:$C$97))/SUMPRODUCT(("Y"='2018'!$G$2:$G$97)*('2018'!$D$2:$D$97))</f>
-        <v>0.93846153846153846</v>
+        <v>0.94202898550724634</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2901,7 +2928,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,7 +2941,7 @@
     <col min="12" max="12" width="64.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2952,7 +2979,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -2976,8 +3003,12 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>COUNTIF(E2:G2,"Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -3001,8 +3032,12 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="M3:M61" si="0">COUNTIF(E3:G3,"Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>69</v>
       </c>
@@ -3026,8 +3061,12 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>70</v>
       </c>
@@ -3055,8 +3094,12 @@
         <v>68</v>
       </c>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>4</v>
       </c>
@@ -3080,8 +3123,12 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>71</v>
       </c>
@@ -3105,8 +3152,12 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>72</v>
       </c>
@@ -3130,8 +3181,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>73</v>
       </c>
@@ -3155,8 +3210,12 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>74</v>
       </c>
@@ -3183,8 +3242,12 @@
       <c r="L10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>75</v>
       </c>
@@ -3211,8 +3274,12 @@
       <c r="L11" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>77</v>
       </c>
@@ -3236,8 +3303,12 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>78</v>
       </c>
@@ -3261,8 +3332,12 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>81</v>
       </c>
@@ -3285,8 +3360,12 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>82</v>
       </c>
@@ -3310,8 +3389,12 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>83</v>
       </c>
@@ -3335,6 +3418,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
@@ -3360,6 +3447,10 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
@@ -3385,6 +3476,10 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
@@ -3410,6 +3505,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
@@ -3438,6 +3537,10 @@
       <c r="L20" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
@@ -3466,6 +3569,10 @@
       <c r="L21" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
@@ -3491,6 +3598,10 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
@@ -3516,6 +3627,10 @@
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
@@ -3541,6 +3656,10 @@
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
@@ -3566,6 +3685,10 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
@@ -3594,6 +3717,10 @@
       <c r="L26" t="s">
         <v>97</v>
       </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
@@ -3622,6 +3749,10 @@
       <c r="L27" t="s">
         <v>97</v>
       </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -3648,6 +3779,10 @@
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
@@ -3673,6 +3808,10 @@
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
@@ -3698,6 +3837,10 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
@@ -3723,6 +3866,10 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
@@ -3748,8 +3895,12 @@
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>101</v>
       </c>
@@ -3773,8 +3924,12 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>102</v>
       </c>
@@ -3801,8 +3956,12 @@
       <c r="L34" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>103</v>
       </c>
@@ -3829,8 +3988,12 @@
       <c r="L35" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>17</v>
       </c>
@@ -3853,8 +4016,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>106</v>
       </c>
@@ -3878,8 +4045,12 @@
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>107</v>
       </c>
@@ -3903,8 +4074,12 @@
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>108</v>
       </c>
@@ -3928,8 +4103,12 @@
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>109</v>
       </c>
@@ -3953,8 +4132,12 @@
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>110</v>
       </c>
@@ -3978,8 +4161,12 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>111</v>
       </c>
@@ -4003,8 +4190,12 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>112</v>
       </c>
@@ -4028,8 +4219,12 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>113</v>
       </c>
@@ -4053,8 +4248,12 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>114</v>
       </c>
@@ -4078,8 +4277,12 @@
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>115</v>
       </c>
@@ -4108,8 +4311,12 @@
       <c r="L46" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>116</v>
       </c>
@@ -4138,8 +4345,12 @@
       <c r="L47" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>120</v>
       </c>
@@ -4163,8 +4374,12 @@
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>121</v>
       </c>
@@ -4188,8 +4403,12 @@
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>122</v>
       </c>
@@ -4213,8 +4432,12 @@
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>123</v>
       </c>
@@ -4238,8 +4461,12 @@
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>124</v>
       </c>
@@ -4268,8 +4495,12 @@
       <c r="L52" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>125</v>
       </c>
@@ -4293,8 +4524,12 @@
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>126</v>
       </c>
@@ -4318,8 +4553,12 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>127</v>
       </c>
@@ -4343,8 +4582,12 @@
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>128</v>
       </c>
@@ -4368,8 +4611,12 @@
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>131</v>
       </c>
@@ -4393,8 +4640,12 @@
       </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>129</v>
       </c>
@@ -4418,8 +4669,12 @@
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>130</v>
       </c>
@@ -4443,8 +4698,12 @@
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
         <v>132</v>
       </c>
@@ -4468,8 +4727,12 @@
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
         <v>133</v>
       </c>
@@ -4496,8 +4759,12 @@
       <c r="L61" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
       <c r="E62" s="3"/>
@@ -4516,11 +4783,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4533,7 +4800,7 @@
     <col min="12" max="12" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -4571,7 +4838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>137</v>
       </c>
@@ -4598,8 +4865,12 @@
       <c r="L2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>COUNTIF(E2:G2,"Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>138</v>
       </c>
@@ -4623,8 +4894,12 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="M3:M61" si="0">COUNTIF(E3:G3,"Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>2</v>
       </c>
@@ -4648,8 +4923,12 @@
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>3</v>
       </c>
@@ -4673,8 +4952,12 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>139</v>
       </c>
@@ -4698,8 +4981,12 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>140</v>
       </c>
@@ -4723,8 +5010,12 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>71</v>
       </c>
@@ -4748,8 +5039,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>72</v>
       </c>
@@ -4773,8 +5068,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>73</v>
       </c>
@@ -4798,8 +5097,12 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>141</v>
       </c>
@@ -4823,8 +5126,12 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>74</v>
       </c>
@@ -4848,8 +5155,12 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>75</v>
       </c>
@@ -4873,8 +5184,12 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>7</v>
       </c>
@@ -4898,8 +5213,12 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>81</v>
       </c>
@@ -4923,8 +5242,12 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>82</v>
       </c>
@@ -4948,8 +5271,12 @@
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>83</v>
       </c>
@@ -4973,8 +5300,12 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>9</v>
       </c>
@@ -4998,8 +5329,12 @@
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>86</v>
       </c>
@@ -5023,8 +5358,12 @@
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>87</v>
       </c>
@@ -5047,8 +5386,12 @@
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>90</v>
       </c>
@@ -5072,8 +5415,12 @@
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>91</v>
       </c>
@@ -5097,8 +5444,12 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>142</v>
       </c>
@@ -5122,8 +5473,12 @@
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>92</v>
       </c>
@@ -5147,8 +5502,12 @@
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>93</v>
       </c>
@@ -5172,8 +5531,12 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>143</v>
       </c>
@@ -5197,8 +5560,12 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>13</v>
       </c>
@@ -5221,8 +5588,12 @@
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>14</v>
       </c>
@@ -5246,8 +5617,12 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>15</v>
       </c>
@@ -5271,8 +5646,12 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>16</v>
       </c>
@@ -5296,8 +5675,12 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>144</v>
       </c>
@@ -5321,8 +5704,12 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>145</v>
       </c>
@@ -5351,8 +5738,12 @@
       <c r="L32" s="28" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>106</v>
       </c>
@@ -5376,8 +5767,12 @@
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>107</v>
       </c>
@@ -5401,8 +5796,12 @@
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>108</v>
       </c>
@@ -5426,8 +5825,12 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>109</v>
       </c>
@@ -5451,8 +5854,12 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>115</v>
       </c>
@@ -5477,8 +5884,12 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>116</v>
       </c>
@@ -5503,8 +5914,12 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="1"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>132</v>
       </c>
@@ -5528,8 +5943,12 @@
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>133</v>
       </c>
@@ -5552,8 +5971,12 @@
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
@@ -5565,7 +5988,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="25"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
@@ -5577,7 +6000,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
@@ -5589,7 +6012,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
@@ -5601,7 +6024,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="25"/>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
@@ -5613,7 +6036,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="25"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
@@ -5625,7 +6048,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
@@ -5637,7 +6060,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="25"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
@@ -5984,11 +6407,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6001,7 +6424,7 @@
     <col min="12" max="12" width="64.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -6039,7 +6462,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>137</v>
       </c>
@@ -6064,8 +6487,12 @@
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
       <c r="L2" s="34"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>COUNTIF(E2:G2,"Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>138</v>
       </c>
@@ -6090,8 +6517,12 @@
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
       <c r="L3" s="34"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="M3:M50" si="0">COUNTIF(E3:G3,"Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>149</v>
       </c>
@@ -6118,8 +6549,12 @@
       <c r="L4" s="34" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>150</v>
       </c>
@@ -6146,8 +6581,12 @@
       <c r="L5" s="34" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>69</v>
       </c>
@@ -6172,8 +6611,12 @@
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
       <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>70</v>
       </c>
@@ -6202,8 +6645,12 @@
       <c r="L7" s="36" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>139</v>
       </c>
@@ -6228,8 +6675,12 @@
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
       <c r="L8" s="34"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>140</v>
       </c>
@@ -6254,8 +6705,12 @@
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="34"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>5</v>
       </c>
@@ -6280,8 +6735,12 @@
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>74</v>
       </c>
@@ -6306,8 +6765,12 @@
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
       <c r="L11" s="34"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6794,12 @@
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="34"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>152</v>
       </c>
@@ -6357,8 +6824,12 @@
       <c r="J13" s="33"/>
       <c r="K13" s="33"/>
       <c r="L13" s="34"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>7</v>
       </c>
@@ -6383,8 +6854,12 @@
       <c r="J14" s="33"/>
       <c r="K14" s="33"/>
       <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>81</v>
       </c>
@@ -6409,8 +6884,12 @@
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
       <c r="L15" s="34"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>82</v>
       </c>
@@ -6435,8 +6914,12 @@
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="34"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>83</v>
       </c>
@@ -6461,8 +6944,12 @@
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
       <c r="L17" s="34"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>84</v>
       </c>
@@ -6487,8 +6974,12 @@
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="34"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>153</v>
       </c>
@@ -6513,8 +7004,12 @@
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
       <c r="L19" s="34"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>154</v>
       </c>
@@ -6539,8 +7034,12 @@
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
       <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>86</v>
       </c>
@@ -6565,8 +7064,12 @@
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
       <c r="L21" s="34"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>87</v>
       </c>
@@ -6591,8 +7094,12 @@
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
       <c r="L22" s="34"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>155</v>
       </c>
@@ -6617,8 +7124,12 @@
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
       <c r="L23" s="34"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>90</v>
       </c>
@@ -6643,8 +7154,12 @@
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
       <c r="L24" s="34"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>91</v>
       </c>
@@ -6669,8 +7184,12 @@
       <c r="J25" s="33"/>
       <c r="K25" s="33"/>
       <c r="L25" s="34"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>142</v>
       </c>
@@ -6695,8 +7214,12 @@
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
       <c r="L26" s="34"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>12</v>
       </c>
@@ -6723,8 +7246,12 @@
       <c r="J27" s="33"/>
       <c r="K27" s="33"/>
       <c r="L27" s="34"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>94</v>
       </c>
@@ -6748,8 +7275,12 @@
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
       <c r="L28" s="34"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>95</v>
       </c>
@@ -6774,8 +7305,12 @@
       <c r="J29" s="33"/>
       <c r="K29" s="33"/>
       <c r="L29" s="34"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>156</v>
       </c>
@@ -6800,8 +7335,12 @@
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
       <c r="L30" s="34"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>157</v>
       </c>
@@ -6826,8 +7365,12 @@
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
       <c r="L31" s="34"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>158</v>
       </c>
@@ -6854,8 +7397,12 @@
       <c r="L32" s="34" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>98</v>
       </c>
@@ -6880,8 +7427,12 @@
       <c r="J33" s="33"/>
       <c r="K33" s="33"/>
       <c r="L33" s="34"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>99</v>
       </c>
@@ -6906,8 +7457,12 @@
       <c r="J34" s="33"/>
       <c r="K34" s="33"/>
       <c r="L34" s="34"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>100</v>
       </c>
@@ -6932,8 +7487,12 @@
       <c r="J35" s="33"/>
       <c r="K35" s="33"/>
       <c r="L35" s="34"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>101</v>
       </c>
@@ -6958,8 +7517,12 @@
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
       <c r="L36" s="34"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>102</v>
       </c>
@@ -6984,8 +7547,12 @@
       <c r="J37" s="33"/>
       <c r="K37" s="33"/>
       <c r="L37" s="34"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>103</v>
       </c>
@@ -7010,8 +7577,12 @@
       <c r="J38" s="33"/>
       <c r="K38" s="33"/>
       <c r="L38" s="34"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>144</v>
       </c>
@@ -7036,8 +7607,12 @@
       <c r="J39" s="33"/>
       <c r="K39" s="33"/>
       <c r="L39" s="34"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>145</v>
       </c>
@@ -7062,8 +7637,12 @@
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
       <c r="L40" s="34"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>159</v>
       </c>
@@ -7088,8 +7667,12 @@
       <c r="J41" s="33"/>
       <c r="K41" s="33"/>
       <c r="L41" s="34"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f>COUNTIF(E41:G41,"Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>120</v>
       </c>
@@ -7114,8 +7697,12 @@
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
       <c r="L42" s="34"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>121</v>
       </c>
@@ -7140,8 +7727,12 @@
       <c r="J43" s="33"/>
       <c r="K43" s="33"/>
       <c r="L43" s="34"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>122</v>
       </c>
@@ -7165,8 +7756,12 @@
       <c r="J44" s="33"/>
       <c r="K44" s="33"/>
       <c r="L44" s="36"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>123</v>
       </c>
@@ -7191,8 +7786,12 @@
       <c r="J45" s="33"/>
       <c r="K45" s="33"/>
       <c r="L45" s="36"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>131</v>
       </c>
@@ -7217,8 +7816,12 @@
       <c r="J46" s="33"/>
       <c r="K46" s="33"/>
       <c r="L46" s="34"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>129</v>
       </c>
@@ -7243,8 +7846,12 @@
       <c r="J47" s="33"/>
       <c r="K47" s="33"/>
       <c r="L47" s="34"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>165</v>
       </c>
@@ -7271,8 +7878,12 @@
       <c r="J48" s="33"/>
       <c r="K48" s="33"/>
       <c r="L48" s="34"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>166</v>
       </c>
@@ -7297,8 +7908,12 @@
       <c r="J49" s="33"/>
       <c r="K49" s="33"/>
       <c r="L49" s="34"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>167</v>
       </c>
@@ -7323,8 +7938,12 @@
       <c r="J50" s="33"/>
       <c r="K50" s="33"/>
       <c r="L50" s="34"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="25"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
@@ -7336,7 +7955,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="25"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
@@ -7348,7 +7967,7 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="25"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
@@ -7360,7 +7979,7 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="25"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
@@ -7372,7 +7991,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="25"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
@@ -7384,7 +8003,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
@@ -7395,7 +8014,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="25"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
@@ -7407,7 +8026,7 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="25"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
@@ -7419,7 +8038,7 @@
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="25"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
@@ -7431,7 +8050,7 @@
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="25"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
@@ -7443,7 +8062,7 @@
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="25"/>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
@@ -7455,7 +8074,7 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="25"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
@@ -7467,7 +8086,7 @@
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
@@ -7479,7 +8098,7 @@
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="25"/>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
@@ -7734,7 +8353,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J70" sqref="J70"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7747,7 +8366,7 @@
     <col min="12" max="12" width="64.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -7785,7 +8404,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>137</v>
       </c>
@@ -7812,8 +8431,12 @@
       <c r="L2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>COUNTIF(E2:G2,"Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>138</v>
       </c>
@@ -7837,8 +8460,12 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="0">COUNTIF(E3:G3,"Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>168</v>
       </c>
@@ -7862,8 +8489,12 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>149</v>
       </c>
@@ -7887,8 +8518,12 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>150</v>
       </c>
@@ -7911,8 +8546,12 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>169</v>
       </c>
@@ -7939,8 +8578,12 @@
       <c r="L7" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>69</v>
       </c>
@@ -7964,8 +8607,12 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>70</v>
       </c>
@@ -7989,8 +8636,12 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>170</v>
       </c>
@@ -8013,8 +8664,12 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>139</v>
       </c>
@@ -8038,8 +8693,12 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>140</v>
       </c>
@@ -8063,8 +8722,12 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>71</v>
       </c>
@@ -8091,8 +8754,12 @@
       <c r="L13" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>72</v>
       </c>
@@ -8115,8 +8782,12 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>74</v>
       </c>
@@ -8143,8 +8814,12 @@
       <c r="L15" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>75</v>
       </c>
@@ -8168,6 +8843,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
@@ -8193,6 +8872,10 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
@@ -8218,6 +8901,10 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
@@ -8243,6 +8930,10 @@
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
@@ -8271,6 +8962,10 @@
       <c r="L20" s="27" t="s">
         <v>185</v>
       </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
@@ -8297,6 +8992,10 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="1"/>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
@@ -8325,6 +9024,10 @@
       <c r="L22" t="s">
         <v>186</v>
       </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
@@ -8355,6 +9058,10 @@
       <c r="L23" t="s">
         <v>187</v>
       </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
@@ -8380,6 +9087,10 @@
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
@@ -8405,6 +9116,10 @@
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
@@ -8430,6 +9145,10 @@
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
@@ -8455,6 +9174,10 @@
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="O27" s="27"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -8481,6 +9204,10 @@
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
@@ -8509,6 +9236,10 @@
       <c r="L29" t="s">
         <v>188</v>
       </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
@@ -8534,6 +9265,10 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
@@ -8559,6 +9294,10 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
@@ -8584,8 +9323,12 @@
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>93</v>
       </c>
@@ -8609,8 +9352,12 @@
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>94</v>
       </c>
@@ -8634,8 +9381,12 @@
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>95</v>
       </c>
@@ -8659,8 +9410,12 @@
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>96</v>
       </c>
@@ -8684,8 +9439,12 @@
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>156</v>
       </c>
@@ -8709,8 +9468,12 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>157</v>
       </c>
@@ -8734,8 +9497,12 @@
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>98</v>
       </c>
@@ -8759,8 +9526,12 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>99</v>
       </c>
@@ -8784,8 +9555,12 @@
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>100</v>
       </c>
@@ -8809,8 +9584,12 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <f>COUNTIF(E41:G41,"Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>101</v>
       </c>
@@ -8834,8 +9613,12 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>102</v>
       </c>
@@ -8859,8 +9642,12 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>144</v>
       </c>
@@ -8884,8 +9671,12 @@
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>145</v>
       </c>
@@ -8909,8 +9700,12 @@
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>18</v>
       </c>
@@ -8934,8 +9729,12 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>111</v>
       </c>
@@ -8960,8 +9759,12 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>112</v>
       </c>
@@ -8985,8 +9788,12 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>115</v>
       </c>
@@ -9010,8 +9817,12 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>116</v>
       </c>
@@ -9035,8 +9846,12 @@
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>174</v>
       </c>
@@ -9060,8 +9875,12 @@
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <f>COUNTIF(E51:G51,"Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>175</v>
       </c>
@@ -9086,8 +9905,12 @@
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="1"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <v>21</v>
       </c>
@@ -9111,8 +9934,12 @@
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>122</v>
       </c>
@@ -9136,8 +9963,12 @@
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>123</v>
       </c>
@@ -9161,8 +9992,12 @@
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>126</v>
       </c>
@@ -9186,8 +10021,12 @@
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>127</v>
       </c>
@@ -9216,8 +10055,12 @@
       <c r="L57" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>128</v>
       </c>
@@ -9241,8 +10084,12 @@
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>131</v>
       </c>
@@ -9269,8 +10116,12 @@
       <c r="L59" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
         <v>129</v>
       </c>
@@ -9294,8 +10145,12 @@
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
         <v>132</v>
       </c>
@@ -9319,8 +10174,12 @@
       </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
         <v>133</v>
       </c>
@@ -9344,8 +10203,12 @@
       </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>165</v>
       </c>
@@ -9369,8 +10232,12 @@
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
         <v>176</v>
       </c>
@@ -9394,8 +10261,12 @@
       </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
         <v>177</v>
       </c>
@@ -9419,8 +10290,12 @@
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
         <v>178</v>
       </c>
@@ -9444,8 +10319,12 @@
       </c>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
         <v>179</v>
       </c>
@@ -9469,8 +10348,12 @@
       </c>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <f t="shared" ref="M67:M70" si="1">COUNTIF(E67:G67,"Y")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
         <v>166</v>
       </c>
@@ -9494,8 +10377,12 @@
       </c>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
         <v>167</v>
       </c>
@@ -9519,8 +10406,12 @@
       </c>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>180</v>
       </c>
@@ -9548,6 +10439,10 @@
       <c r="K70" s="3"/>
       <c r="L70" s="1" t="s">
         <v>193</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9561,8 +10456,8 @@
   <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9701,9 +10596,11 @@
       <c r="D5" s="24">
         <v>2</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="37"/>
       <c r="H5" s="3" t="s">
         <v>68</v>
       </c>
@@ -10362,9 +11259,11 @@
       <c r="D31" s="24">
         <v>0.5</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3" t="s">
         <v>68</v>
@@ -10385,9 +11284,11 @@
       <c r="D32" s="24">
         <v>0.75</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="37"/>
       <c r="H32" s="3" t="s">
         <v>68</v>
       </c>
@@ -10408,9 +11309,11 @@
       <c r="D33" s="24">
         <v>0.5</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37" t="s">
+        <v>68</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3" t="s">
         <v>68</v>
